--- a/uploads/movimientos.xlsx
+++ b/uploads/movimientos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB3DE81-052F-45BD-A98E-1FFF9D8E3B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0A37C8-212F-4242-88E1-E612188FEAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Movimientos de Cuenta</t>
   </si>
@@ -47,190 +47,34 @@
     <t>Saldo</t>
   </si>
   <si>
-    <t>2025-7-31, 2:00 PM</t>
+    <t>2025-10-13, 6:31 PM</t>
   </si>
   <si>
-    <t>TRANSFERENCIA DIRECTA A CHAVARRÍA ANCHUNDIA EUGENIO EDUARDO</t>
-  </si>
-  <si>
-    <t>Débito</t>
-  </si>
-  <si>
-    <t>-$3,00</t>
-  </si>
-  <si>
-    <t>$0,06</t>
-  </si>
-  <si>
-    <t>40385679</t>
-  </si>
-  <si>
-    <t>******2151</t>
-  </si>
-  <si>
-    <t>2025-7-31, 12:05 PM</t>
-  </si>
-  <si>
-    <t>TRANSFERENCIA DIRECTA DE RIVAS SOLORZANO MARIA</t>
+    <t>TRANSFERENCIA DIRECTA DE MERA RODRIGUEZ MANUEL ADALBERTO</t>
   </si>
   <si>
     <t>Crédito</t>
   </si>
   <si>
-    <t>$0,25</t>
+    <t>$20,00</t>
   </si>
   <si>
-    <t>$3,06</t>
+    <t>$393,18</t>
   </si>
   <si>
-    <t>28108400</t>
+    <t>311821769</t>
   </si>
   <si>
-    <t>******5626</t>
+    <t>2025-10-13, 5:45 PM</t>
   </si>
   <si>
-    <t>2025-7-30, 1:28 PM</t>
+    <t>TRANSFERENCIA DIRECTA DE VELEZ ZAMBRANO JEFFERSON JOSE</t>
   </si>
   <si>
-    <t>TRANSFERENCIA DIRECTA A GILER VERA RAMON</t>
+    <t>$373,18</t>
   </si>
   <si>
-    <t>$2,81</t>
-  </si>
-  <si>
-    <t>33952338</t>
-  </si>
-  <si>
-    <t>******9901</t>
-  </si>
-  <si>
-    <t>2025-7-28, 6:04 PM</t>
-  </si>
-  <si>
-    <t>TRANSFERENCIA DIRECTA A OSORIO MEJIA ANA DANIELA</t>
-  </si>
-  <si>
-    <t>-$7,22</t>
-  </si>
-  <si>
-    <t>$5,81</t>
-  </si>
-  <si>
-    <t>167178070</t>
-  </si>
-  <si>
-    <t>******3880</t>
-  </si>
-  <si>
-    <t>2025-7-28, 6:01 PM</t>
-  </si>
-  <si>
-    <t>$5,00</t>
-  </si>
-  <si>
-    <t>$13,03</t>
-  </si>
-  <si>
-    <t>166851723</t>
-  </si>
-  <si>
-    <t>2025-7-28, 8:16 AM</t>
-  </si>
-  <si>
-    <t>TRANSFERENCIA DIRECTA A SOLORZANO CHAMPANG INGRI BELEN</t>
-  </si>
-  <si>
-    <t>-$80,00</t>
-  </si>
-  <si>
-    <t>$8,03</t>
-  </si>
-  <si>
-    <t>109478638</t>
-  </si>
-  <si>
-    <t>******7835</t>
-  </si>
-  <si>
-    <t>2025-7-28, 8:05 AM</t>
-  </si>
-  <si>
-    <t>$80,00</t>
-  </si>
-  <si>
-    <t>$88,03</t>
-  </si>
-  <si>
-    <t>108925764</t>
-  </si>
-  <si>
-    <t>2025-7-28, 3:01 PM</t>
-  </si>
-  <si>
-    <t>CONSUMO VISA NA HIPERMARKET BAHIA     SCR</t>
-  </si>
-  <si>
-    <t>-$6,67</t>
-  </si>
-  <si>
-    <t>33440808</t>
-  </si>
-  <si>
-    <t>2025-7-28, 2:45 PM</t>
-  </si>
-  <si>
-    <t>-$43,33</t>
-  </si>
-  <si>
-    <t>$14,7</t>
-  </si>
-  <si>
-    <t>32367689</t>
-  </si>
-  <si>
-    <t>2025-7-25, 8:41 PM</t>
-  </si>
-  <si>
-    <t>$18,4</t>
-  </si>
-  <si>
-    <t>$58,03</t>
-  </si>
-  <si>
-    <t>68902859</t>
-  </si>
-  <si>
-    <t>2025-7-25, 8:18 PM</t>
-  </si>
-  <si>
-    <t>RETIRO BANRED   COOP. POLICIA NACIONAL</t>
-  </si>
-  <si>
-    <t>-$30,52</t>
-  </si>
-  <si>
-    <t>$39,63</t>
-  </si>
-  <si>
-    <t>67117473</t>
-  </si>
-  <si>
-    <t>IVA COBRADO          COOP. POL</t>
-  </si>
-  <si>
-    <t>-$0,07</t>
-  </si>
-  <si>
-    <t>$70,15</t>
-  </si>
-  <si>
-    <t>COMISION ATM         COOP. POL</t>
-  </si>
-  <si>
-    <t>-$0,45</t>
-  </si>
-  <si>
-    <t>$70,22</t>
+    <t>306949090</t>
   </si>
 </sst>
 </file>
@@ -479,6 +323,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color rgb="FF049346"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF049346"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE9ECF3"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF049346"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -509,21 +368,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF049346"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF049346"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE9ECF3"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF049346"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -547,11 +391,11 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -570,10 +414,10 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -893,10 +737,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R287"/>
+  <dimension ref="A1:R407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63:L64"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1073,13 +917,13 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="P7" s="12" t="s">
@@ -1096,18 +940,16 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="12"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1120,13 +962,13 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="13"/>
+      <c r="N9" s="14"/>
       <c r="O9" s="1"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="1"/>
@@ -1157,27 +999,27 @@
       <c r="B11" s="1"/>
       <c r="C11" s="5"/>
       <c r="D11" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="14" t="s">
-        <v>18</v>
+      <c r="K11" s="13" t="s">
+        <v>11</v>
       </c>
-      <c r="L11" s="14"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="14" t="s">
-        <v>19</v>
+      <c r="O11" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1190,18 +1032,16 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="13" t="s">
-        <v>21</v>
+      <c r="H12" s="14" t="s">
+        <v>18</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="13"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1214,13 +1054,13 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="13"/>
+      <c r="N13" s="14"/>
       <c r="O13" s="1"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="1"/>
@@ -1250,29 +1090,19 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="O15" s="13"/>
+      <c r="P15" s="12"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
@@ -1284,18 +1114,14 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="12"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="13"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1308,13 +1134,13 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="13"/>
+      <c r="N17" s="14"/>
       <c r="O17" s="1"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="1"/>
@@ -1344,29 +1170,19 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="12"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="12"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
@@ -1378,18 +1194,14 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="O20" s="12"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="13"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1402,13 +1214,13 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="13"/>
+      <c r="N21" s="14"/>
       <c r="O21" s="1"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="1"/>
@@ -1438,29 +1250,19 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="14"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
@@ -1472,18 +1274,14 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1496,13 +1294,13 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="13"/>
+      <c r="N25" s="14"/>
       <c r="O25" s="1"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="1"/>
@@ -1532,29 +1330,19 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
@@ -1566,17 +1354,13 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="N28" s="14"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="1"/>
@@ -1590,13 +1374,13 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="13"/>
+      <c r="N29" s="14"/>
       <c r="O29" s="1"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="1"/>
@@ -1626,29 +1410,19 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="14"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="P31" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="O31" s="13"/>
+      <c r="P31" s="12"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
@@ -1660,18 +1434,14 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="13"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -1684,13 +1454,13 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="13"/>
+      <c r="N33" s="14"/>
       <c r="O33" s="1"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="1"/>
@@ -1720,29 +1490,19 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P35" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
@@ -1754,15 +1514,13 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="13"/>
+      <c r="N36" s="14"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="1"/>
@@ -1776,13 +1534,13 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="13"/>
+      <c r="N37" s="14"/>
       <c r="O37" s="1"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="1"/>
@@ -1812,29 +1570,19 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
@@ -1846,15 +1594,13 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="13"/>
+      <c r="N40" s="14"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="1"/>
@@ -1868,13 +1614,13 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="13"/>
+      <c r="N41" s="14"/>
       <c r="O41" s="1"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="1"/>
@@ -1904,29 +1650,19 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="14"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-      <c r="O43" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="P43" s="12" t="s">
-        <v>58</v>
-      </c>
+      <c r="O43" s="13"/>
+      <c r="P43" s="12"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
@@ -1938,18 +1674,14 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="13"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -1962,13 +1694,13 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="13"/>
+      <c r="N45" s="14"/>
       <c r="O45" s="1"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="1"/>
@@ -1998,29 +1730,19 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P47" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
@@ -2032,15 +1754,13 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="13"/>
+      <c r="N48" s="14"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="1"/>
@@ -2054,13 +1774,13 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="13"/>
+      <c r="N49" s="14"/>
       <c r="O49" s="1"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="1"/>
@@ -2090,29 +1810,19 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="12"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
-      <c r="O51" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="P51" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="O51" s="13"/>
+      <c r="P51" s="12"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
@@ -2124,16 +1834,14 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="12"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="13"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2146,13 +1854,13 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="13"/>
+      <c r="N53" s="14"/>
       <c r="O53" s="1"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="1"/>
@@ -2182,29 +1890,19 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
-      <c r="O55" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P55" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
     </row>
@@ -2216,15 +1914,13 @@
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="13"/>
+      <c r="N56" s="14"/>
       <c r="O56" s="12"/>
       <c r="P56" s="12"/>
       <c r="Q56" s="1"/>
@@ -2238,13 +1934,13 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="13"/>
+      <c r="N57" s="14"/>
       <c r="O57" s="1"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="1"/>
@@ -2281,11 +1977,11 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
-      <c r="O59" s="12"/>
+      <c r="O59" s="13"/>
       <c r="P59" s="12"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -2298,14 +1994,14 @@
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="12"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="13"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -2318,13 +2014,13 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="13"/>
+      <c r="N61" s="14"/>
       <c r="O61" s="1"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="1"/>
@@ -2361,11 +2057,11 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
-      <c r="O63" s="14"/>
+      <c r="O63" s="13"/>
       <c r="P63" s="12"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -2378,14 +2074,14 @@
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="13"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -2398,13 +2094,13 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="13"/>
+      <c r="N65" s="14"/>
       <c r="O65" s="1"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="1"/>
@@ -2441,11 +2137,11 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
-      <c r="O67" s="12"/>
+      <c r="O67" s="13"/>
       <c r="P67" s="12"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -2458,14 +2154,14 @@
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="12"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="13"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -2478,13 +2174,13 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="13"/>
+      <c r="N69" s="14"/>
       <c r="O69" s="1"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="1"/>
@@ -2538,13 +2234,13 @@
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
       <c r="K72" s="12"/>
       <c r="L72" s="12"/>
       <c r="M72" s="1"/>
-      <c r="N72" s="13"/>
+      <c r="N72" s="14"/>
       <c r="O72" s="12"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="1"/>
@@ -2558,13 +2254,13 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-      <c r="N73" s="13"/>
+      <c r="N73" s="14"/>
       <c r="O73" s="1"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="1"/>
@@ -2601,11 +2297,11 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
-      <c r="O75" s="12"/>
+      <c r="O75" s="13"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -2618,14 +2314,14 @@
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
       <c r="M76" s="1"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="12"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="13"/>
       <c r="P76" s="12"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -2638,13 +2334,13 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="13"/>
+      <c r="N77" s="14"/>
       <c r="O77" s="1"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="1"/>
@@ -2681,11 +2377,11 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
-      <c r="O79" s="14"/>
+      <c r="O79" s="13"/>
       <c r="P79" s="12"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
@@ -2698,14 +2394,14 @@
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
       <c r="M80" s="1"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="13"/>
       <c r="P80" s="12"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
@@ -2718,13 +2414,13 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
-      <c r="N81" s="13"/>
+      <c r="N81" s="14"/>
       <c r="O81" s="1"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="1"/>
@@ -2761,11 +2457,11 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
-      <c r="O83" s="12"/>
+      <c r="O83" s="13"/>
       <c r="P83" s="12"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
@@ -2778,14 +2474,14 @@
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
       <c r="M84" s="1"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="12"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="13"/>
       <c r="P84" s="12"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
@@ -2798,13 +2494,13 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
-      <c r="N85" s="13"/>
+      <c r="N85" s="14"/>
       <c r="O85" s="1"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="1"/>
@@ -2841,11 +2537,11 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
-      <c r="O87" s="12"/>
+      <c r="O87" s="13"/>
       <c r="P87" s="12"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
@@ -2858,14 +2554,14 @@
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
       <c r="M88" s="1"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="12"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="13"/>
       <c r="P88" s="12"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
@@ -2878,13 +2574,13 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
-      <c r="N89" s="13"/>
+      <c r="N89" s="14"/>
       <c r="O89" s="1"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="1"/>
@@ -2921,11 +2617,11 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
-      <c r="O91" s="12"/>
+      <c r="O91" s="13"/>
       <c r="P91" s="12"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
@@ -2938,14 +2634,14 @@
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
       <c r="M92" s="1"/>
-      <c r="N92" s="13"/>
-      <c r="O92" s="12"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="13"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
@@ -2958,13 +2654,13 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
-      <c r="N93" s="13"/>
+      <c r="N93" s="14"/>
       <c r="O93" s="1"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="1"/>
@@ -3018,13 +2714,13 @@
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
       <c r="K96" s="12"/>
       <c r="L96" s="12"/>
       <c r="M96" s="1"/>
-      <c r="N96" s="13"/>
+      <c r="N96" s="14"/>
       <c r="O96" s="12"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="1"/>
@@ -3038,13 +2734,13 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
-      <c r="N97" s="13"/>
+      <c r="N97" s="14"/>
       <c r="O97" s="1"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="1"/>
@@ -3098,13 +2794,13 @@
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
       <c r="K100" s="12"/>
       <c r="L100" s="12"/>
       <c r="M100" s="1"/>
-      <c r="N100" s="13"/>
+      <c r="N100" s="14"/>
       <c r="O100" s="12"/>
       <c r="P100" s="12"/>
       <c r="Q100" s="1"/>
@@ -3118,13 +2814,13 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
-      <c r="N101" s="13"/>
+      <c r="N101" s="14"/>
       <c r="O101" s="1"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="1"/>
@@ -3161,11 +2857,11 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
-      <c r="O103" s="12"/>
+      <c r="O103" s="13"/>
       <c r="P103" s="12"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
@@ -3178,14 +2874,14 @@
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
       <c r="M104" s="1"/>
-      <c r="N104" s="13"/>
-      <c r="O104" s="12"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="13"/>
       <c r="P104" s="12"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
@@ -3198,13 +2894,13 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
-      <c r="N105" s="13"/>
+      <c r="N105" s="14"/>
       <c r="O105" s="1"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="1"/>
@@ -3258,13 +2954,13 @@
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
       <c r="M108" s="1"/>
-      <c r="N108" s="13"/>
+      <c r="N108" s="14"/>
       <c r="O108" s="12"/>
       <c r="P108" s="12"/>
       <c r="Q108" s="1"/>
@@ -3278,13 +2974,13 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
-      <c r="N109" s="13"/>
+      <c r="N109" s="14"/>
       <c r="O109" s="1"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="1"/>
@@ -3321,11 +3017,11 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="14"/>
-      <c r="L111" s="14"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="14"/>
+      <c r="O111" s="13"/>
       <c r="P111" s="12"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
@@ -3338,14 +3034,14 @@
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="14"/>
-      <c r="L112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
       <c r="M112" s="1"/>
-      <c r="N112" s="13"/>
-      <c r="O112" s="14"/>
+      <c r="N112" s="14"/>
+      <c r="O112" s="13"/>
       <c r="P112" s="12"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
@@ -3358,13 +3054,13 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
-      <c r="N113" s="13"/>
+      <c r="N113" s="14"/>
       <c r="O113" s="1"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="1"/>
@@ -3401,11 +3097,11 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="12"/>
+      <c r="O115" s="13"/>
       <c r="P115" s="12"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
@@ -3418,14 +3114,14 @@
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
       <c r="M116" s="1"/>
-      <c r="N116" s="13"/>
-      <c r="O116" s="12"/>
+      <c r="N116" s="14"/>
+      <c r="O116" s="13"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
@@ -3438,13 +3134,13 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
-      <c r="N117" s="13"/>
+      <c r="N117" s="14"/>
       <c r="O117" s="1"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="1"/>
@@ -3481,11 +3177,11 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="14"/>
-      <c r="L119" s="14"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="14"/>
+      <c r="O119" s="12"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
@@ -3498,14 +3194,14 @@
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
       <c r="M120" s="1"/>
-      <c r="N120" s="13"/>
-      <c r="O120" s="14"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="12"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
@@ -3518,13 +3214,13 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
-      <c r="N121" s="13"/>
+      <c r="N121" s="14"/>
       <c r="O121" s="1"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="1"/>
@@ -3561,11 +3257,11 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="12"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
-      <c r="O123" s="12"/>
+      <c r="O123" s="13"/>
       <c r="P123" s="12"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
@@ -3578,14 +3274,14 @@
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="12"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
       <c r="M124" s="1"/>
-      <c r="N124" s="13"/>
-      <c r="O124" s="12"/>
+      <c r="N124" s="14"/>
+      <c r="O124" s="13"/>
       <c r="P124" s="12"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
@@ -3598,13 +3294,13 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="13"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
-      <c r="N125" s="13"/>
+      <c r="N125" s="14"/>
       <c r="O125" s="1"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="1"/>
@@ -3658,13 +3354,13 @@
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
       <c r="K128" s="12"/>
       <c r="L128" s="12"/>
       <c r="M128" s="1"/>
-      <c r="N128" s="13"/>
+      <c r="N128" s="14"/>
       <c r="O128" s="12"/>
       <c r="P128" s="12"/>
       <c r="Q128" s="1"/>
@@ -3678,13 +3374,13 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
-      <c r="N129" s="13"/>
+      <c r="N129" s="14"/>
       <c r="O129" s="1"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="1"/>
@@ -3738,13 +3434,13 @@
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="1"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="13"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
       <c r="K132" s="12"/>
       <c r="L132" s="12"/>
       <c r="M132" s="1"/>
-      <c r="N132" s="13"/>
+      <c r="N132" s="14"/>
       <c r="O132" s="12"/>
       <c r="P132" s="12"/>
       <c r="Q132" s="1"/>
@@ -3758,13 +3454,13 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
-      <c r="N133" s="13"/>
+      <c r="N133" s="14"/>
       <c r="O133" s="1"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="1"/>
@@ -3801,11 +3497,11 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="12"/>
-      <c r="L135" s="12"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="13"/>
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="12"/>
+      <c r="O135" s="13"/>
       <c r="P135" s="12"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
@@ -3818,14 +3514,14 @@
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="12"/>
-      <c r="L136" s="12"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="13"/>
       <c r="M136" s="1"/>
-      <c r="N136" s="13"/>
-      <c r="O136" s="12"/>
+      <c r="N136" s="14"/>
+      <c r="O136" s="13"/>
       <c r="P136" s="12"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
@@ -3838,13 +3534,13 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
-      <c r="N137" s="13"/>
+      <c r="N137" s="14"/>
       <c r="O137" s="1"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="1"/>
@@ -3881,11 +3577,11 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="14"/>
-      <c r="L139" s="14"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="13"/>
       <c r="M139" s="5"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="14"/>
+      <c r="O139" s="13"/>
       <c r="P139" s="12"/>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
@@ -3898,14 +3594,14 @@
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
       <c r="G140" s="1"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="13"/>
-      <c r="K140" s="14"/>
-      <c r="L140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="13"/>
+      <c r="L140" s="13"/>
       <c r="M140" s="1"/>
-      <c r="N140" s="13"/>
-      <c r="O140" s="14"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="13"/>
       <c r="P140" s="12"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
@@ -3918,13 +3614,13 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="13"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
-      <c r="N141" s="13"/>
+      <c r="N141" s="14"/>
       <c r="O141" s="1"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="1"/>
@@ -3961,11 +3657,11 @@
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
-      <c r="K143" s="12"/>
-      <c r="L143" s="12"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="13"/>
       <c r="M143" s="5"/>
       <c r="N143" s="5"/>
-      <c r="O143" s="12"/>
+      <c r="O143" s="13"/>
       <c r="P143" s="12"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
@@ -3978,14 +3674,14 @@
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="13"/>
-      <c r="I144" s="13"/>
-      <c r="J144" s="13"/>
-      <c r="K144" s="12"/>
-      <c r="L144" s="12"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
       <c r="M144" s="1"/>
-      <c r="N144" s="13"/>
-      <c r="O144" s="12"/>
+      <c r="N144" s="14"/>
+      <c r="O144" s="13"/>
       <c r="P144" s="12"/>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
@@ -3998,13 +3694,13 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="13"/>
-      <c r="J145" s="13"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="14"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
-      <c r="N145" s="13"/>
+      <c r="N145" s="14"/>
       <c r="O145" s="1"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="1"/>
@@ -4041,11 +3737,11 @@
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="12"/>
+      <c r="K147" s="13"/>
+      <c r="L147" s="13"/>
       <c r="M147" s="5"/>
       <c r="N147" s="5"/>
-      <c r="O147" s="12"/>
+      <c r="O147" s="13"/>
       <c r="P147" s="12"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
@@ -4058,14 +3754,14 @@
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="13"/>
-      <c r="I148" s="13"/>
-      <c r="J148" s="13"/>
-      <c r="K148" s="12"/>
-      <c r="L148" s="12"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="13"/>
+      <c r="L148" s="13"/>
       <c r="M148" s="1"/>
-      <c r="N148" s="13"/>
-      <c r="O148" s="12"/>
+      <c r="N148" s="14"/>
+      <c r="O148" s="13"/>
       <c r="P148" s="12"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
@@ -4078,13 +3774,13 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
-      <c r="H149" s="13"/>
-      <c r="I149" s="13"/>
-      <c r="J149" s="13"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
-      <c r="N149" s="13"/>
+      <c r="N149" s="14"/>
       <c r="O149" s="1"/>
       <c r="P149" s="6"/>
       <c r="Q149" s="1"/>
@@ -4121,11 +3817,11 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
-      <c r="K151" s="12"/>
-      <c r="L151" s="12"/>
+      <c r="K151" s="13"/>
+      <c r="L151" s="13"/>
       <c r="M151" s="5"/>
       <c r="N151" s="5"/>
-      <c r="O151" s="12"/>
+      <c r="O151" s="13"/>
       <c r="P151" s="12"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
@@ -4138,14 +3834,14 @@
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="13"/>
-      <c r="I152" s="13"/>
-      <c r="J152" s="13"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="12"/>
+      <c r="H152" s="14"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="13"/>
       <c r="M152" s="1"/>
-      <c r="N152" s="13"/>
-      <c r="O152" s="12"/>
+      <c r="N152" s="14"/>
+      <c r="O152" s="13"/>
       <c r="P152" s="12"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
@@ -4158,13 +3854,13 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
-      <c r="H153" s="13"/>
-      <c r="I153" s="13"/>
-      <c r="J153" s="13"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="14"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
-      <c r="N153" s="13"/>
+      <c r="N153" s="14"/>
       <c r="O153" s="1"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="1"/>
@@ -4201,11 +3897,11 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
-      <c r="K155" s="12"/>
-      <c r="L155" s="12"/>
+      <c r="K155" s="13"/>
+      <c r="L155" s="13"/>
       <c r="M155" s="5"/>
       <c r="N155" s="5"/>
-      <c r="O155" s="12"/>
+      <c r="O155" s="13"/>
       <c r="P155" s="12"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
@@ -4218,14 +3914,14 @@
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="13"/>
-      <c r="J156" s="13"/>
-      <c r="K156" s="12"/>
-      <c r="L156" s="12"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="14"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
       <c r="M156" s="1"/>
-      <c r="N156" s="13"/>
-      <c r="O156" s="12"/>
+      <c r="N156" s="14"/>
+      <c r="O156" s="13"/>
       <c r="P156" s="12"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
@@ -4238,13 +3934,13 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
-      <c r="H157" s="13"/>
-      <c r="I157" s="13"/>
-      <c r="J157" s="13"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="14"/>
+      <c r="J157" s="14"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
-      <c r="N157" s="13"/>
+      <c r="N157" s="14"/>
       <c r="O157" s="1"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="1"/>
@@ -4281,11 +3977,11 @@
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="12"/>
+      <c r="K159" s="13"/>
+      <c r="L159" s="13"/>
       <c r="M159" s="5"/>
       <c r="N159" s="5"/>
-      <c r="O159" s="12"/>
+      <c r="O159" s="13"/>
       <c r="P159" s="12"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
@@ -4298,14 +3994,14 @@
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
       <c r="G160" s="1"/>
-      <c r="H160" s="13"/>
-      <c r="I160" s="13"/>
-      <c r="J160" s="13"/>
-      <c r="K160" s="12"/>
-      <c r="L160" s="12"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="14"/>
+      <c r="J160" s="14"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="13"/>
       <c r="M160" s="1"/>
-      <c r="N160" s="13"/>
-      <c r="O160" s="12"/>
+      <c r="N160" s="14"/>
+      <c r="O160" s="13"/>
       <c r="P160" s="12"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
@@ -4318,13 +4014,13 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
-      <c r="H161" s="13"/>
-      <c r="I161" s="13"/>
-      <c r="J161" s="13"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="14"/>
+      <c r="J161" s="14"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
-      <c r="N161" s="13"/>
+      <c r="N161" s="14"/>
       <c r="O161" s="1"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="1"/>
@@ -4361,11 +4057,11 @@
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
-      <c r="K163" s="14"/>
-      <c r="L163" s="14"/>
+      <c r="K163" s="13"/>
+      <c r="L163" s="13"/>
       <c r="M163" s="5"/>
       <c r="N163" s="5"/>
-      <c r="O163" s="14"/>
+      <c r="O163" s="13"/>
       <c r="P163" s="12"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
@@ -4378,14 +4074,14 @@
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
       <c r="G164" s="1"/>
-      <c r="H164" s="13"/>
-      <c r="I164" s="13"/>
-      <c r="J164" s="13"/>
-      <c r="K164" s="14"/>
-      <c r="L164" s="14"/>
+      <c r="H164" s="14"/>
+      <c r="I164" s="14"/>
+      <c r="J164" s="14"/>
+      <c r="K164" s="13"/>
+      <c r="L164" s="13"/>
       <c r="M164" s="1"/>
-      <c r="N164" s="13"/>
-      <c r="O164" s="14"/>
+      <c r="N164" s="14"/>
+      <c r="O164" s="13"/>
       <c r="P164" s="12"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
@@ -4398,13 +4094,13 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
-      <c r="H165" s="13"/>
-      <c r="I165" s="13"/>
-      <c r="J165" s="13"/>
+      <c r="H165" s="14"/>
+      <c r="I165" s="14"/>
+      <c r="J165" s="14"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
-      <c r="N165" s="13"/>
+      <c r="N165" s="14"/>
       <c r="O165" s="1"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="1"/>
@@ -4441,11 +4137,11 @@
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
-      <c r="K167" s="12"/>
-      <c r="L167" s="12"/>
+      <c r="K167" s="13"/>
+      <c r="L167" s="13"/>
       <c r="M167" s="5"/>
       <c r="N167" s="5"/>
-      <c r="O167" s="12"/>
+      <c r="O167" s="13"/>
       <c r="P167" s="12"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
@@ -4458,14 +4154,14 @@
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
       <c r="G168" s="1"/>
-      <c r="H168" s="13"/>
-      <c r="I168" s="13"/>
-      <c r="J168" s="13"/>
-      <c r="K168" s="12"/>
-      <c r="L168" s="12"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="14"/>
+      <c r="J168" s="14"/>
+      <c r="K168" s="13"/>
+      <c r="L168" s="13"/>
       <c r="M168" s="1"/>
-      <c r="N168" s="13"/>
-      <c r="O168" s="12"/>
+      <c r="N168" s="14"/>
+      <c r="O168" s="13"/>
       <c r="P168" s="12"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
@@ -4478,13 +4174,13 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
-      <c r="H169" s="13"/>
-      <c r="I169" s="13"/>
-      <c r="J169" s="13"/>
+      <c r="H169" s="14"/>
+      <c r="I169" s="14"/>
+      <c r="J169" s="14"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
-      <c r="N169" s="13"/>
+      <c r="N169" s="14"/>
       <c r="O169" s="1"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="1"/>
@@ -4521,11 +4217,11 @@
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
-      <c r="K171" s="12"/>
-      <c r="L171" s="12"/>
+      <c r="K171" s="13"/>
+      <c r="L171" s="13"/>
       <c r="M171" s="5"/>
       <c r="N171" s="5"/>
-      <c r="O171" s="12"/>
+      <c r="O171" s="13"/>
       <c r="P171" s="12"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
@@ -4538,14 +4234,14 @@
       <c r="E172" s="12"/>
       <c r="F172" s="12"/>
       <c r="G172" s="1"/>
-      <c r="H172" s="13"/>
-      <c r="I172" s="13"/>
-      <c r="J172" s="13"/>
-      <c r="K172" s="12"/>
-      <c r="L172" s="12"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="14"/>
+      <c r="J172" s="14"/>
+      <c r="K172" s="13"/>
+      <c r="L172" s="13"/>
       <c r="M172" s="1"/>
-      <c r="N172" s="13"/>
-      <c r="O172" s="12"/>
+      <c r="N172" s="14"/>
+      <c r="O172" s="13"/>
       <c r="P172" s="12"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
@@ -4558,13 +4254,13 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="H173" s="13"/>
-      <c r="I173" s="13"/>
-      <c r="J173" s="13"/>
+      <c r="H173" s="14"/>
+      <c r="I173" s="14"/>
+      <c r="J173" s="14"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
-      <c r="N173" s="13"/>
+      <c r="N173" s="14"/>
       <c r="O173" s="1"/>
       <c r="P173" s="6"/>
       <c r="Q173" s="1"/>
@@ -4601,11 +4297,11 @@
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
-      <c r="K175" s="12"/>
-      <c r="L175" s="12"/>
+      <c r="K175" s="13"/>
+      <c r="L175" s="13"/>
       <c r="M175" s="5"/>
       <c r="N175" s="5"/>
-      <c r="O175" s="12"/>
+      <c r="O175" s="13"/>
       <c r="P175" s="12"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
@@ -4618,14 +4314,14 @@
       <c r="E176" s="12"/>
       <c r="F176" s="12"/>
       <c r="G176" s="1"/>
-      <c r="H176" s="13"/>
-      <c r="I176" s="13"/>
-      <c r="J176" s="13"/>
-      <c r="K176" s="12"/>
-      <c r="L176" s="12"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14"/>
+      <c r="J176" s="14"/>
+      <c r="K176" s="13"/>
+      <c r="L176" s="13"/>
       <c r="M176" s="1"/>
-      <c r="N176" s="13"/>
-      <c r="O176" s="12"/>
+      <c r="N176" s="14"/>
+      <c r="O176" s="13"/>
       <c r="P176" s="12"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
@@ -4638,13 +4334,13 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
-      <c r="H177" s="13"/>
-      <c r="I177" s="13"/>
-      <c r="J177" s="13"/>
+      <c r="H177" s="14"/>
+      <c r="I177" s="14"/>
+      <c r="J177" s="14"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
-      <c r="N177" s="13"/>
+      <c r="N177" s="14"/>
       <c r="O177" s="1"/>
       <c r="P177" s="6"/>
       <c r="Q177" s="1"/>
@@ -4681,11 +4377,11 @@
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
-      <c r="K179" s="12"/>
-      <c r="L179" s="12"/>
+      <c r="K179" s="13"/>
+      <c r="L179" s="13"/>
       <c r="M179" s="5"/>
       <c r="N179" s="5"/>
-      <c r="O179" s="12"/>
+      <c r="O179" s="13"/>
       <c r="P179" s="12"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
@@ -4698,14 +4394,14 @@
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
       <c r="G180" s="1"/>
-      <c r="H180" s="13"/>
-      <c r="I180" s="13"/>
-      <c r="J180" s="13"/>
-      <c r="K180" s="12"/>
-      <c r="L180" s="12"/>
+      <c r="H180" s="14"/>
+      <c r="I180" s="14"/>
+      <c r="J180" s="14"/>
+      <c r="K180" s="13"/>
+      <c r="L180" s="13"/>
       <c r="M180" s="1"/>
-      <c r="N180" s="13"/>
-      <c r="O180" s="12"/>
+      <c r="N180" s="14"/>
+      <c r="O180" s="13"/>
       <c r="P180" s="12"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
@@ -4718,13 +4414,13 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-      <c r="H181" s="13"/>
-      <c r="I181" s="13"/>
-      <c r="J181" s="13"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="14"/>
+      <c r="J181" s="14"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
-      <c r="N181" s="13"/>
+      <c r="N181" s="14"/>
       <c r="O181" s="1"/>
       <c r="P181" s="6"/>
       <c r="Q181" s="1"/>
@@ -4761,11 +4457,11 @@
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
-      <c r="K183" s="12"/>
-      <c r="L183" s="12"/>
+      <c r="K183" s="13"/>
+      <c r="L183" s="13"/>
       <c r="M183" s="5"/>
       <c r="N183" s="5"/>
-      <c r="O183" s="12"/>
+      <c r="O183" s="13"/>
       <c r="P183" s="12"/>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
@@ -4778,14 +4474,14 @@
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="1"/>
-      <c r="H184" s="13"/>
-      <c r="I184" s="13"/>
-      <c r="J184" s="13"/>
-      <c r="K184" s="12"/>
-      <c r="L184" s="12"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="14"/>
+      <c r="J184" s="14"/>
+      <c r="K184" s="13"/>
+      <c r="L184" s="13"/>
       <c r="M184" s="1"/>
-      <c r="N184" s="13"/>
-      <c r="O184" s="12"/>
+      <c r="N184" s="14"/>
+      <c r="O184" s="13"/>
       <c r="P184" s="12"/>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
@@ -4798,13 +4494,13 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
-      <c r="H185" s="13"/>
-      <c r="I185" s="13"/>
-      <c r="J185" s="13"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="14"/>
+      <c r="J185" s="14"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
-      <c r="N185" s="13"/>
+      <c r="N185" s="14"/>
       <c r="O185" s="1"/>
       <c r="P185" s="6"/>
       <c r="Q185" s="1"/>
@@ -4841,11 +4537,11 @@
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
-      <c r="K187" s="12"/>
-      <c r="L187" s="12"/>
+      <c r="K187" s="13"/>
+      <c r="L187" s="13"/>
       <c r="M187" s="5"/>
       <c r="N187" s="5"/>
-      <c r="O187" s="12"/>
+      <c r="O187" s="13"/>
       <c r="P187" s="12"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
@@ -4858,14 +4554,14 @@
       <c r="E188" s="12"/>
       <c r="F188" s="12"/>
       <c r="G188" s="1"/>
-      <c r="H188" s="13"/>
-      <c r="I188" s="13"/>
-      <c r="J188" s="13"/>
-      <c r="K188" s="12"/>
-      <c r="L188" s="12"/>
+      <c r="H188" s="14"/>
+      <c r="I188" s="14"/>
+      <c r="J188" s="14"/>
+      <c r="K188" s="13"/>
+      <c r="L188" s="13"/>
       <c r="M188" s="1"/>
-      <c r="N188" s="13"/>
-      <c r="O188" s="12"/>
+      <c r="N188" s="14"/>
+      <c r="O188" s="13"/>
       <c r="P188" s="12"/>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
@@ -4878,13 +4574,13 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="H189" s="13"/>
-      <c r="I189" s="13"/>
-      <c r="J189" s="13"/>
+      <c r="H189" s="14"/>
+      <c r="I189" s="14"/>
+      <c r="J189" s="14"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
-      <c r="N189" s="13"/>
+      <c r="N189" s="14"/>
       <c r="O189" s="1"/>
       <c r="P189" s="6"/>
       <c r="Q189" s="1"/>
@@ -4921,11 +4617,11 @@
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
-      <c r="K191" s="14"/>
-      <c r="L191" s="14"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
       <c r="M191" s="5"/>
       <c r="N191" s="5"/>
-      <c r="O191" s="14"/>
+      <c r="O191" s="12"/>
       <c r="P191" s="12"/>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
@@ -4938,14 +4634,14 @@
       <c r="E192" s="12"/>
       <c r="F192" s="12"/>
       <c r="G192" s="1"/>
-      <c r="H192" s="13"/>
-      <c r="I192" s="13"/>
-      <c r="J192" s="13"/>
-      <c r="K192" s="14"/>
-      <c r="L192" s="14"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="14"/>
+      <c r="J192" s="14"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="12"/>
       <c r="M192" s="1"/>
-      <c r="N192" s="13"/>
-      <c r="O192" s="14"/>
+      <c r="N192" s="14"/>
+      <c r="O192" s="12"/>
       <c r="P192" s="12"/>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
@@ -4958,13 +4654,13 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="H193" s="13"/>
-      <c r="I193" s="13"/>
-      <c r="J193" s="13"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="14"/>
+      <c r="J193" s="14"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
-      <c r="N193" s="13"/>
+      <c r="N193" s="14"/>
       <c r="O193" s="1"/>
       <c r="P193" s="6"/>
       <c r="Q193" s="1"/>
@@ -5001,11 +4697,11 @@
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
-      <c r="K195" s="12"/>
-      <c r="L195" s="12"/>
+      <c r="K195" s="13"/>
+      <c r="L195" s="13"/>
       <c r="M195" s="5"/>
       <c r="N195" s="5"/>
-      <c r="O195" s="12"/>
+      <c r="O195" s="13"/>
       <c r="P195" s="12"/>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
@@ -5018,14 +4714,14 @@
       <c r="E196" s="12"/>
       <c r="F196" s="12"/>
       <c r="G196" s="1"/>
-      <c r="H196" s="13"/>
-      <c r="I196" s="13"/>
-      <c r="J196" s="13"/>
-      <c r="K196" s="12"/>
-      <c r="L196" s="12"/>
+      <c r="H196" s="14"/>
+      <c r="I196" s="14"/>
+      <c r="J196" s="14"/>
+      <c r="K196" s="13"/>
+      <c r="L196" s="13"/>
       <c r="M196" s="1"/>
-      <c r="N196" s="13"/>
-      <c r="O196" s="12"/>
+      <c r="N196" s="14"/>
+      <c r="O196" s="13"/>
       <c r="P196" s="12"/>
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
@@ -5038,13 +4734,13 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="13"/>
-      <c r="I197" s="13"/>
-      <c r="J197" s="13"/>
+      <c r="H197" s="14"/>
+      <c r="I197" s="14"/>
+      <c r="J197" s="14"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
-      <c r="N197" s="13"/>
+      <c r="N197" s="14"/>
       <c r="O197" s="1"/>
       <c r="P197" s="6"/>
       <c r="Q197" s="1"/>
@@ -5081,11 +4777,11 @@
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
-      <c r="K199" s="14"/>
-      <c r="L199" s="14"/>
+      <c r="K199" s="13"/>
+      <c r="L199" s="13"/>
       <c r="M199" s="5"/>
       <c r="N199" s="5"/>
-      <c r="O199" s="14"/>
+      <c r="O199" s="13"/>
       <c r="P199" s="12"/>
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
@@ -5098,14 +4794,14 @@
       <c r="E200" s="12"/>
       <c r="F200" s="12"/>
       <c r="G200" s="1"/>
-      <c r="H200" s="13"/>
-      <c r="I200" s="13"/>
-      <c r="J200" s="13"/>
-      <c r="K200" s="14"/>
-      <c r="L200" s="14"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="14"/>
+      <c r="J200" s="14"/>
+      <c r="K200" s="13"/>
+      <c r="L200" s="13"/>
       <c r="M200" s="1"/>
-      <c r="N200" s="13"/>
-      <c r="O200" s="14"/>
+      <c r="N200" s="14"/>
+      <c r="O200" s="13"/>
       <c r="P200" s="12"/>
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
@@ -5118,13 +4814,13 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="H201" s="13"/>
-      <c r="I201" s="13"/>
-      <c r="J201" s="13"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="14"/>
+      <c r="J201" s="14"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
-      <c r="N201" s="13"/>
+      <c r="N201" s="14"/>
       <c r="O201" s="1"/>
       <c r="P201" s="6"/>
       <c r="Q201" s="1"/>
@@ -5161,11 +4857,11 @@
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
-      <c r="K203" s="12"/>
-      <c r="L203" s="12"/>
+      <c r="K203" s="13"/>
+      <c r="L203" s="13"/>
       <c r="M203" s="5"/>
       <c r="N203" s="5"/>
-      <c r="O203" s="12"/>
+      <c r="O203" s="13"/>
       <c r="P203" s="12"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
@@ -5178,14 +4874,14 @@
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="1"/>
-      <c r="H204" s="13"/>
-      <c r="I204" s="13"/>
-      <c r="J204" s="13"/>
-      <c r="K204" s="12"/>
-      <c r="L204" s="12"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="14"/>
+      <c r="J204" s="14"/>
+      <c r="K204" s="13"/>
+      <c r="L204" s="13"/>
       <c r="M204" s="1"/>
-      <c r="N204" s="13"/>
-      <c r="O204" s="12"/>
+      <c r="N204" s="14"/>
+      <c r="O204" s="13"/>
       <c r="P204" s="12"/>
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
@@ -5198,13 +4894,13 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="H205" s="13"/>
-      <c r="I205" s="13"/>
-      <c r="J205" s="13"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="14"/>
+      <c r="J205" s="14"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
-      <c r="N205" s="13"/>
+      <c r="N205" s="14"/>
       <c r="O205" s="1"/>
       <c r="P205" s="6"/>
       <c r="Q205" s="1"/>
@@ -5258,13 +4954,13 @@
       <c r="E208" s="12"/>
       <c r="F208" s="12"/>
       <c r="G208" s="1"/>
-      <c r="H208" s="13"/>
-      <c r="I208" s="13"/>
-      <c r="J208" s="13"/>
+      <c r="H208" s="14"/>
+      <c r="I208" s="14"/>
+      <c r="J208" s="14"/>
       <c r="K208" s="12"/>
       <c r="L208" s="12"/>
       <c r="M208" s="1"/>
-      <c r="N208" s="13"/>
+      <c r="N208" s="14"/>
       <c r="O208" s="12"/>
       <c r="P208" s="12"/>
       <c r="Q208" s="1"/>
@@ -5278,13 +4974,13 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
-      <c r="H209" s="13"/>
-      <c r="I209" s="13"/>
-      <c r="J209" s="13"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="14"/>
+      <c r="J209" s="14"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
-      <c r="N209" s="13"/>
+      <c r="N209" s="14"/>
       <c r="O209" s="1"/>
       <c r="P209" s="6"/>
       <c r="Q209" s="1"/>
@@ -5338,13 +5034,13 @@
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
       <c r="G212" s="1"/>
-      <c r="H212" s="13"/>
-      <c r="I212" s="13"/>
-      <c r="J212" s="13"/>
+      <c r="H212" s="14"/>
+      <c r="I212" s="14"/>
+      <c r="J212" s="14"/>
       <c r="K212" s="12"/>
       <c r="L212" s="12"/>
       <c r="M212" s="1"/>
-      <c r="N212" s="13"/>
+      <c r="N212" s="14"/>
       <c r="O212" s="12"/>
       <c r="P212" s="12"/>
       <c r="Q212" s="1"/>
@@ -5358,13 +5054,13 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
-      <c r="H213" s="13"/>
-      <c r="I213" s="13"/>
-      <c r="J213" s="13"/>
+      <c r="H213" s="14"/>
+      <c r="I213" s="14"/>
+      <c r="J213" s="14"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
-      <c r="N213" s="13"/>
+      <c r="N213" s="14"/>
       <c r="O213" s="1"/>
       <c r="P213" s="6"/>
       <c r="Q213" s="1"/>
@@ -5418,13 +5114,13 @@
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
       <c r="G216" s="1"/>
-      <c r="H216" s="13"/>
-      <c r="I216" s="13"/>
-      <c r="J216" s="13"/>
+      <c r="H216" s="14"/>
+      <c r="I216" s="14"/>
+      <c r="J216" s="14"/>
       <c r="K216" s="12"/>
       <c r="L216" s="12"/>
       <c r="M216" s="1"/>
-      <c r="N216" s="13"/>
+      <c r="N216" s="14"/>
       <c r="O216" s="12"/>
       <c r="P216" s="12"/>
       <c r="Q216" s="1"/>
@@ -5438,13 +5134,13 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
-      <c r="H217" s="13"/>
-      <c r="I217" s="13"/>
-      <c r="J217" s="13"/>
+      <c r="H217" s="14"/>
+      <c r="I217" s="14"/>
+      <c r="J217" s="14"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
-      <c r="N217" s="13"/>
+      <c r="N217" s="14"/>
       <c r="O217" s="1"/>
       <c r="P217" s="6"/>
       <c r="Q217" s="1"/>
@@ -5498,13 +5194,13 @@
       <c r="E220" s="12"/>
       <c r="F220" s="12"/>
       <c r="G220" s="1"/>
-      <c r="H220" s="13"/>
-      <c r="I220" s="13"/>
-      <c r="J220" s="13"/>
+      <c r="H220" s="14"/>
+      <c r="I220" s="14"/>
+      <c r="J220" s="14"/>
       <c r="K220" s="12"/>
       <c r="L220" s="12"/>
       <c r="M220" s="1"/>
-      <c r="N220" s="13"/>
+      <c r="N220" s="14"/>
       <c r="O220" s="12"/>
       <c r="P220" s="12"/>
       <c r="Q220" s="1"/>
@@ -5518,13 +5214,13 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
-      <c r="H221" s="13"/>
-      <c r="I221" s="13"/>
-      <c r="J221" s="13"/>
+      <c r="H221" s="14"/>
+      <c r="I221" s="14"/>
+      <c r="J221" s="14"/>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
-      <c r="N221" s="13"/>
+      <c r="N221" s="14"/>
       <c r="O221" s="1"/>
       <c r="P221" s="6"/>
       <c r="Q221" s="1"/>
@@ -5561,11 +5257,11 @@
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
-      <c r="K223" s="12"/>
-      <c r="L223" s="12"/>
+      <c r="K223" s="13"/>
+      <c r="L223" s="13"/>
       <c r="M223" s="5"/>
       <c r="N223" s="5"/>
-      <c r="O223" s="12"/>
+      <c r="O223" s="13"/>
       <c r="P223" s="12"/>
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
@@ -5578,14 +5274,14 @@
       <c r="E224" s="12"/>
       <c r="F224" s="12"/>
       <c r="G224" s="1"/>
-      <c r="H224" s="13"/>
-      <c r="I224" s="13"/>
-      <c r="J224" s="13"/>
-      <c r="K224" s="12"/>
-      <c r="L224" s="12"/>
+      <c r="H224" s="14"/>
+      <c r="I224" s="14"/>
+      <c r="J224" s="14"/>
+      <c r="K224" s="13"/>
+      <c r="L224" s="13"/>
       <c r="M224" s="1"/>
-      <c r="N224" s="13"/>
-      <c r="O224" s="12"/>
+      <c r="N224" s="14"/>
+      <c r="O224" s="13"/>
       <c r="P224" s="12"/>
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
@@ -5598,13 +5294,13 @@
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
-      <c r="H225" s="13"/>
-      <c r="I225" s="13"/>
-      <c r="J225" s="13"/>
+      <c r="H225" s="14"/>
+      <c r="I225" s="14"/>
+      <c r="J225" s="14"/>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
-      <c r="N225" s="13"/>
+      <c r="N225" s="14"/>
       <c r="O225" s="1"/>
       <c r="P225" s="6"/>
       <c r="Q225" s="1"/>
@@ -5641,11 +5337,11 @@
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
-      <c r="K227" s="12"/>
-      <c r="L227" s="12"/>
+      <c r="K227" s="13"/>
+      <c r="L227" s="13"/>
       <c r="M227" s="5"/>
       <c r="N227" s="5"/>
-      <c r="O227" s="12"/>
+      <c r="O227" s="13"/>
       <c r="P227" s="12"/>
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
@@ -5658,14 +5354,14 @@
       <c r="E228" s="12"/>
       <c r="F228" s="12"/>
       <c r="G228" s="1"/>
-      <c r="H228" s="13"/>
-      <c r="I228" s="13"/>
-      <c r="J228" s="13"/>
-      <c r="K228" s="12"/>
-      <c r="L228" s="12"/>
+      <c r="H228" s="14"/>
+      <c r="I228" s="14"/>
+      <c r="J228" s="14"/>
+      <c r="K228" s="13"/>
+      <c r="L228" s="13"/>
       <c r="M228" s="1"/>
-      <c r="N228" s="13"/>
-      <c r="O228" s="12"/>
+      <c r="N228" s="14"/>
+      <c r="O228" s="13"/>
       <c r="P228" s="12"/>
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
@@ -5678,13 +5374,13 @@
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="H229" s="13"/>
-      <c r="I229" s="13"/>
-      <c r="J229" s="13"/>
+      <c r="H229" s="14"/>
+      <c r="I229" s="14"/>
+      <c r="J229" s="14"/>
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
-      <c r="N229" s="13"/>
+      <c r="N229" s="14"/>
       <c r="O229" s="1"/>
       <c r="P229" s="6"/>
       <c r="Q229" s="1"/>
@@ -5738,13 +5434,13 @@
       <c r="E232" s="12"/>
       <c r="F232" s="12"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="13"/>
-      <c r="I232" s="13"/>
-      <c r="J232" s="13"/>
+      <c r="H232" s="14"/>
+      <c r="I232" s="14"/>
+      <c r="J232" s="14"/>
       <c r="K232" s="12"/>
       <c r="L232" s="12"/>
       <c r="M232" s="1"/>
-      <c r="N232" s="13"/>
+      <c r="N232" s="14"/>
       <c r="O232" s="12"/>
       <c r="P232" s="12"/>
       <c r="Q232" s="1"/>
@@ -5758,13 +5454,13 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
-      <c r="H233" s="13"/>
-      <c r="I233" s="13"/>
-      <c r="J233" s="13"/>
+      <c r="H233" s="14"/>
+      <c r="I233" s="14"/>
+      <c r="J233" s="14"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
-      <c r="N233" s="13"/>
+      <c r="N233" s="14"/>
       <c r="O233" s="1"/>
       <c r="P233" s="6"/>
       <c r="Q233" s="1"/>
@@ -5801,11 +5497,11 @@
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
-      <c r="K235" s="12"/>
-      <c r="L235" s="12"/>
+      <c r="K235" s="13"/>
+      <c r="L235" s="13"/>
       <c r="M235" s="5"/>
       <c r="N235" s="5"/>
-      <c r="O235" s="12"/>
+      <c r="O235" s="13"/>
       <c r="P235" s="12"/>
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
@@ -5818,14 +5514,14 @@
       <c r="E236" s="12"/>
       <c r="F236" s="12"/>
       <c r="G236" s="1"/>
-      <c r="H236" s="13"/>
-      <c r="I236" s="13"/>
-      <c r="J236" s="13"/>
-      <c r="K236" s="12"/>
-      <c r="L236" s="12"/>
+      <c r="H236" s="14"/>
+      <c r="I236" s="14"/>
+      <c r="J236" s="14"/>
+      <c r="K236" s="13"/>
+      <c r="L236" s="13"/>
       <c r="M236" s="1"/>
-      <c r="N236" s="13"/>
-      <c r="O236" s="12"/>
+      <c r="N236" s="14"/>
+      <c r="O236" s="13"/>
       <c r="P236" s="12"/>
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
@@ -5838,13 +5534,13 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="13"/>
-      <c r="I237" s="13"/>
-      <c r="J237" s="13"/>
+      <c r="H237" s="14"/>
+      <c r="I237" s="14"/>
+      <c r="J237" s="14"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
-      <c r="N237" s="13"/>
+      <c r="N237" s="14"/>
       <c r="O237" s="1"/>
       <c r="P237" s="6"/>
       <c r="Q237" s="1"/>
@@ -5881,11 +5577,11 @@
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
-      <c r="K239" s="12"/>
-      <c r="L239" s="12"/>
+      <c r="K239" s="13"/>
+      <c r="L239" s="13"/>
       <c r="M239" s="5"/>
       <c r="N239" s="5"/>
-      <c r="O239" s="12"/>
+      <c r="O239" s="13"/>
       <c r="P239" s="12"/>
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
@@ -5898,14 +5594,14 @@
       <c r="E240" s="12"/>
       <c r="F240" s="12"/>
       <c r="G240" s="1"/>
-      <c r="H240" s="13"/>
-      <c r="I240" s="13"/>
-      <c r="J240" s="13"/>
-      <c r="K240" s="12"/>
-      <c r="L240" s="12"/>
+      <c r="H240" s="14"/>
+      <c r="I240" s="14"/>
+      <c r="J240" s="14"/>
+      <c r="K240" s="13"/>
+      <c r="L240" s="13"/>
       <c r="M240" s="1"/>
-      <c r="N240" s="13"/>
-      <c r="O240" s="12"/>
+      <c r="N240" s="14"/>
+      <c r="O240" s="13"/>
       <c r="P240" s="12"/>
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
@@ -5918,13 +5614,13 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
-      <c r="H241" s="13"/>
-      <c r="I241" s="13"/>
-      <c r="J241" s="13"/>
+      <c r="H241" s="14"/>
+      <c r="I241" s="14"/>
+      <c r="J241" s="14"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
-      <c r="N241" s="13"/>
+      <c r="N241" s="14"/>
       <c r="O241" s="1"/>
       <c r="P241" s="6"/>
       <c r="Q241" s="1"/>
@@ -5978,13 +5674,13 @@
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
       <c r="G244" s="1"/>
-      <c r="H244" s="13"/>
-      <c r="I244" s="13"/>
-      <c r="J244" s="13"/>
+      <c r="H244" s="14"/>
+      <c r="I244" s="14"/>
+      <c r="J244" s="14"/>
       <c r="K244" s="12"/>
       <c r="L244" s="12"/>
       <c r="M244" s="1"/>
-      <c r="N244" s="13"/>
+      <c r="N244" s="14"/>
       <c r="O244" s="12"/>
       <c r="P244" s="12"/>
       <c r="Q244" s="1"/>
@@ -5998,13 +5694,13 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
-      <c r="H245" s="13"/>
-      <c r="I245" s="13"/>
-      <c r="J245" s="13"/>
+      <c r="H245" s="14"/>
+      <c r="I245" s="14"/>
+      <c r="J245" s="14"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
-      <c r="N245" s="13"/>
+      <c r="N245" s="14"/>
       <c r="O245" s="1"/>
       <c r="P245" s="6"/>
       <c r="Q245" s="1"/>
@@ -6041,11 +5737,11 @@
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
-      <c r="K247" s="12"/>
-      <c r="L247" s="12"/>
+      <c r="K247" s="13"/>
+      <c r="L247" s="13"/>
       <c r="M247" s="5"/>
       <c r="N247" s="5"/>
-      <c r="O247" s="12"/>
+      <c r="O247" s="13"/>
       <c r="P247" s="12"/>
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
@@ -6058,14 +5754,14 @@
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
       <c r="G248" s="1"/>
-      <c r="H248" s="13"/>
-      <c r="I248" s="13"/>
-      <c r="J248" s="13"/>
-      <c r="K248" s="12"/>
-      <c r="L248" s="12"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="14"/>
+      <c r="J248" s="14"/>
+      <c r="K248" s="13"/>
+      <c r="L248" s="13"/>
       <c r="M248" s="1"/>
-      <c r="N248" s="13"/>
-      <c r="O248" s="12"/>
+      <c r="N248" s="14"/>
+      <c r="O248" s="13"/>
       <c r="P248" s="12"/>
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
@@ -6078,13 +5774,13 @@
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
-      <c r="H249" s="13"/>
-      <c r="I249" s="13"/>
-      <c r="J249" s="13"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="14"/>
+      <c r="J249" s="14"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
-      <c r="N249" s="13"/>
+      <c r="N249" s="14"/>
       <c r="O249" s="1"/>
       <c r="P249" s="6"/>
       <c r="Q249" s="1"/>
@@ -6121,11 +5817,11 @@
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
-      <c r="K251" s="12"/>
-      <c r="L251" s="12"/>
+      <c r="K251" s="13"/>
+      <c r="L251" s="13"/>
       <c r="M251" s="5"/>
       <c r="N251" s="5"/>
-      <c r="O251" s="12"/>
+      <c r="O251" s="13"/>
       <c r="P251" s="12"/>
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
@@ -6138,14 +5834,14 @@
       <c r="E252" s="12"/>
       <c r="F252" s="12"/>
       <c r="G252" s="1"/>
-      <c r="H252" s="13"/>
-      <c r="I252" s="13"/>
-      <c r="J252" s="13"/>
-      <c r="K252" s="12"/>
-      <c r="L252" s="12"/>
+      <c r="H252" s="14"/>
+      <c r="I252" s="14"/>
+      <c r="J252" s="14"/>
+      <c r="K252" s="13"/>
+      <c r="L252" s="13"/>
       <c r="M252" s="1"/>
-      <c r="N252" s="13"/>
-      <c r="O252" s="12"/>
+      <c r="N252" s="14"/>
+      <c r="O252" s="13"/>
       <c r="P252" s="12"/>
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
@@ -6158,13 +5854,13 @@
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
-      <c r="H253" s="13"/>
-      <c r="I253" s="13"/>
-      <c r="J253" s="13"/>
+      <c r="H253" s="14"/>
+      <c r="I253" s="14"/>
+      <c r="J253" s="14"/>
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
       <c r="M253" s="1"/>
-      <c r="N253" s="13"/>
+      <c r="N253" s="14"/>
       <c r="O253" s="1"/>
       <c r="P253" s="6"/>
       <c r="Q253" s="1"/>
@@ -6201,11 +5897,11 @@
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
-      <c r="K255" s="12"/>
-      <c r="L255" s="12"/>
+      <c r="K255" s="13"/>
+      <c r="L255" s="13"/>
       <c r="M255" s="5"/>
       <c r="N255" s="5"/>
-      <c r="O255" s="12"/>
+      <c r="O255" s="13"/>
       <c r="P255" s="12"/>
       <c r="Q255" s="1"/>
       <c r="R255" s="1"/>
@@ -6218,14 +5914,14 @@
       <c r="E256" s="12"/>
       <c r="F256" s="12"/>
       <c r="G256" s="1"/>
-      <c r="H256" s="13"/>
-      <c r="I256" s="13"/>
-      <c r="J256" s="13"/>
-      <c r="K256" s="12"/>
-      <c r="L256" s="12"/>
+      <c r="H256" s="14"/>
+      <c r="I256" s="14"/>
+      <c r="J256" s="14"/>
+      <c r="K256" s="13"/>
+      <c r="L256" s="13"/>
       <c r="M256" s="1"/>
-      <c r="N256" s="13"/>
-      <c r="O256" s="12"/>
+      <c r="N256" s="14"/>
+      <c r="O256" s="13"/>
       <c r="P256" s="12"/>
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
@@ -6238,13 +5934,13 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
-      <c r="H257" s="13"/>
-      <c r="I257" s="13"/>
-      <c r="J257" s="13"/>
+      <c r="H257" s="14"/>
+      <c r="I257" s="14"/>
+      <c r="J257" s="14"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
       <c r="M257" s="1"/>
-      <c r="N257" s="13"/>
+      <c r="N257" s="14"/>
       <c r="O257" s="1"/>
       <c r="P257" s="6"/>
       <c r="Q257" s="1"/>
@@ -6281,11 +5977,11 @@
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
-      <c r="K259" s="12"/>
-      <c r="L259" s="12"/>
+      <c r="K259" s="13"/>
+      <c r="L259" s="13"/>
       <c r="M259" s="5"/>
       <c r="N259" s="5"/>
-      <c r="O259" s="12"/>
+      <c r="O259" s="13"/>
       <c r="P259" s="12"/>
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
@@ -6298,14 +5994,14 @@
       <c r="E260" s="12"/>
       <c r="F260" s="12"/>
       <c r="G260" s="1"/>
-      <c r="H260" s="13"/>
-      <c r="I260" s="13"/>
-      <c r="J260" s="13"/>
-      <c r="K260" s="12"/>
-      <c r="L260" s="12"/>
+      <c r="H260" s="14"/>
+      <c r="I260" s="14"/>
+      <c r="J260" s="14"/>
+      <c r="K260" s="13"/>
+      <c r="L260" s="13"/>
       <c r="M260" s="1"/>
-      <c r="N260" s="13"/>
-      <c r="O260" s="12"/>
+      <c r="N260" s="14"/>
+      <c r="O260" s="13"/>
       <c r="P260" s="12"/>
       <c r="Q260" s="1"/>
       <c r="R260" s="1"/>
@@ -6318,13 +6014,13 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
-      <c r="H261" s="13"/>
-      <c r="I261" s="13"/>
-      <c r="J261" s="13"/>
+      <c r="H261" s="14"/>
+      <c r="I261" s="14"/>
+      <c r="J261" s="14"/>
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
-      <c r="N261" s="13"/>
+      <c r="N261" s="14"/>
       <c r="O261" s="1"/>
       <c r="P261" s="6"/>
       <c r="Q261" s="1"/>
@@ -6361,11 +6057,11 @@
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
-      <c r="K263" s="12"/>
-      <c r="L263" s="12"/>
+      <c r="K263" s="13"/>
+      <c r="L263" s="13"/>
       <c r="M263" s="5"/>
       <c r="N263" s="5"/>
-      <c r="O263" s="12"/>
+      <c r="O263" s="13"/>
       <c r="P263" s="12"/>
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
@@ -6378,14 +6074,14 @@
       <c r="E264" s="12"/>
       <c r="F264" s="12"/>
       <c r="G264" s="1"/>
-      <c r="H264" s="13"/>
-      <c r="I264" s="13"/>
-      <c r="J264" s="13"/>
-      <c r="K264" s="12"/>
-      <c r="L264" s="12"/>
+      <c r="H264" s="14"/>
+      <c r="I264" s="14"/>
+      <c r="J264" s="14"/>
+      <c r="K264" s="13"/>
+      <c r="L264" s="13"/>
       <c r="M264" s="1"/>
-      <c r="N264" s="13"/>
-      <c r="O264" s="12"/>
+      <c r="N264" s="14"/>
+      <c r="O264" s="13"/>
       <c r="P264" s="12"/>
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
@@ -6398,13 +6094,13 @@
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
-      <c r="H265" s="13"/>
-      <c r="I265" s="13"/>
-      <c r="J265" s="13"/>
+      <c r="H265" s="14"/>
+      <c r="I265" s="14"/>
+      <c r="J265" s="14"/>
       <c r="K265" s="1"/>
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
-      <c r="N265" s="13"/>
+      <c r="N265" s="14"/>
       <c r="O265" s="1"/>
       <c r="P265" s="6"/>
       <c r="Q265" s="1"/>
@@ -6441,11 +6137,11 @@
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
-      <c r="K267" s="12"/>
-      <c r="L267" s="12"/>
+      <c r="K267" s="13"/>
+      <c r="L267" s="13"/>
       <c r="M267" s="5"/>
       <c r="N267" s="5"/>
-      <c r="O267" s="12"/>
+      <c r="O267" s="13"/>
       <c r="P267" s="12"/>
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
@@ -6458,14 +6154,14 @@
       <c r="E268" s="12"/>
       <c r="F268" s="12"/>
       <c r="G268" s="1"/>
-      <c r="H268" s="13"/>
-      <c r="I268" s="13"/>
-      <c r="J268" s="13"/>
-      <c r="K268" s="12"/>
-      <c r="L268" s="12"/>
+      <c r="H268" s="14"/>
+      <c r="I268" s="14"/>
+      <c r="J268" s="14"/>
+      <c r="K268" s="13"/>
+      <c r="L268" s="13"/>
       <c r="M268" s="1"/>
-      <c r="N268" s="13"/>
-      <c r="O268" s="12"/>
+      <c r="N268" s="14"/>
+      <c r="O268" s="13"/>
       <c r="P268" s="12"/>
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
@@ -6478,13 +6174,13 @@
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
-      <c r="H269" s="13"/>
-      <c r="I269" s="13"/>
-      <c r="J269" s="13"/>
+      <c r="H269" s="14"/>
+      <c r="I269" s="14"/>
+      <c r="J269" s="14"/>
       <c r="K269" s="1"/>
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
-      <c r="N269" s="13"/>
+      <c r="N269" s="14"/>
       <c r="O269" s="1"/>
       <c r="P269" s="6"/>
       <c r="Q269" s="1"/>
@@ -6521,11 +6217,11 @@
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
       <c r="J271" s="5"/>
-      <c r="K271" s="12"/>
-      <c r="L271" s="12"/>
+      <c r="K271" s="13"/>
+      <c r="L271" s="13"/>
       <c r="M271" s="5"/>
       <c r="N271" s="5"/>
-      <c r="O271" s="12"/>
+      <c r="O271" s="13"/>
       <c r="P271" s="12"/>
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
@@ -6538,14 +6234,14 @@
       <c r="E272" s="12"/>
       <c r="F272" s="12"/>
       <c r="G272" s="1"/>
-      <c r="H272" s="13"/>
-      <c r="I272" s="13"/>
-      <c r="J272" s="13"/>
-      <c r="K272" s="12"/>
-      <c r="L272" s="12"/>
+      <c r="H272" s="14"/>
+      <c r="I272" s="14"/>
+      <c r="J272" s="14"/>
+      <c r="K272" s="13"/>
+      <c r="L272" s="13"/>
       <c r="M272" s="1"/>
-      <c r="N272" s="13"/>
-      <c r="O272" s="12"/>
+      <c r="N272" s="14"/>
+      <c r="O272" s="13"/>
       <c r="P272" s="12"/>
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
@@ -6558,13 +6254,13 @@
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
-      <c r="H273" s="13"/>
-      <c r="I273" s="13"/>
-      <c r="J273" s="13"/>
+      <c r="H273" s="14"/>
+      <c r="I273" s="14"/>
+      <c r="J273" s="14"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
-      <c r="N273" s="13"/>
+      <c r="N273" s="14"/>
       <c r="O273" s="1"/>
       <c r="P273" s="6"/>
       <c r="Q273" s="1"/>
@@ -6601,11 +6297,11 @@
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
       <c r="J275" s="5"/>
-      <c r="K275" s="14"/>
-      <c r="L275" s="14"/>
+      <c r="K275" s="13"/>
+      <c r="L275" s="13"/>
       <c r="M275" s="5"/>
       <c r="N275" s="5"/>
-      <c r="O275" s="14"/>
+      <c r="O275" s="13"/>
       <c r="P275" s="12"/>
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
@@ -6618,14 +6314,14 @@
       <c r="E276" s="12"/>
       <c r="F276" s="12"/>
       <c r="G276" s="1"/>
-      <c r="H276" s="13"/>
-      <c r="I276" s="13"/>
-      <c r="J276" s="13"/>
-      <c r="K276" s="14"/>
-      <c r="L276" s="14"/>
+      <c r="H276" s="14"/>
+      <c r="I276" s="14"/>
+      <c r="J276" s="14"/>
+      <c r="K276" s="13"/>
+      <c r="L276" s="13"/>
       <c r="M276" s="1"/>
-      <c r="N276" s="13"/>
-      <c r="O276" s="14"/>
+      <c r="N276" s="14"/>
+      <c r="O276" s="13"/>
       <c r="P276" s="12"/>
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
@@ -6638,13 +6334,13 @@
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
-      <c r="H277" s="13"/>
-      <c r="I277" s="13"/>
-      <c r="J277" s="13"/>
+      <c r="H277" s="14"/>
+      <c r="I277" s="14"/>
+      <c r="J277" s="14"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
       <c r="M277" s="1"/>
-      <c r="N277" s="13"/>
+      <c r="N277" s="14"/>
       <c r="O277" s="1"/>
       <c r="P277" s="6"/>
       <c r="Q277" s="1"/>
@@ -6681,11 +6377,11 @@
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
       <c r="J279" s="5"/>
-      <c r="K279" s="12"/>
-      <c r="L279" s="12"/>
+      <c r="K279" s="13"/>
+      <c r="L279" s="13"/>
       <c r="M279" s="5"/>
       <c r="N279" s="5"/>
-      <c r="O279" s="12"/>
+      <c r="O279" s="13"/>
       <c r="P279" s="12"/>
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
@@ -6698,14 +6394,14 @@
       <c r="E280" s="12"/>
       <c r="F280" s="12"/>
       <c r="G280" s="1"/>
-      <c r="H280" s="13"/>
-      <c r="I280" s="13"/>
-      <c r="J280" s="13"/>
-      <c r="K280" s="12"/>
-      <c r="L280" s="12"/>
+      <c r="H280" s="14"/>
+      <c r="I280" s="14"/>
+      <c r="J280" s="14"/>
+      <c r="K280" s="13"/>
+      <c r="L280" s="13"/>
       <c r="M280" s="1"/>
-      <c r="N280" s="13"/>
-      <c r="O280" s="12"/>
+      <c r="N280" s="14"/>
+      <c r="O280" s="13"/>
       <c r="P280" s="12"/>
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
@@ -6718,13 +6414,13 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
-      <c r="H281" s="13"/>
-      <c r="I281" s="13"/>
-      <c r="J281" s="13"/>
+      <c r="H281" s="14"/>
+      <c r="I281" s="14"/>
+      <c r="J281" s="14"/>
       <c r="K281" s="1"/>
       <c r="L281" s="1"/>
       <c r="M281" s="1"/>
-      <c r="N281" s="13"/>
+      <c r="N281" s="14"/>
       <c r="O281" s="1"/>
       <c r="P281" s="6"/>
       <c r="Q281" s="1"/>
@@ -6761,11 +6457,11 @@
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
       <c r="J283" s="5"/>
-      <c r="K283" s="14"/>
-      <c r="L283" s="14"/>
+      <c r="K283" s="13"/>
+      <c r="L283" s="13"/>
       <c r="M283" s="5"/>
       <c r="N283" s="5"/>
-      <c r="O283" s="14"/>
+      <c r="O283" s="13"/>
       <c r="P283" s="12"/>
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
@@ -6778,14 +6474,14 @@
       <c r="E284" s="12"/>
       <c r="F284" s="12"/>
       <c r="G284" s="1"/>
-      <c r="H284" s="13"/>
-      <c r="I284" s="13"/>
-      <c r="J284" s="13"/>
-      <c r="K284" s="14"/>
-      <c r="L284" s="14"/>
+      <c r="H284" s="14"/>
+      <c r="I284" s="14"/>
+      <c r="J284" s="14"/>
+      <c r="K284" s="13"/>
+      <c r="L284" s="13"/>
       <c r="M284" s="1"/>
-      <c r="N284" s="13"/>
-      <c r="O284" s="14"/>
+      <c r="N284" s="14"/>
+      <c r="O284" s="13"/>
       <c r="P284" s="12"/>
       <c r="Q284" s="1"/>
       <c r="R284" s="1"/>
@@ -6798,13 +6494,13 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
-      <c r="H285" s="13"/>
-      <c r="I285" s="13"/>
-      <c r="J285" s="13"/>
+      <c r="H285" s="14"/>
+      <c r="I285" s="14"/>
+      <c r="J285" s="14"/>
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
       <c r="M285" s="1"/>
-      <c r="N285" s="13"/>
+      <c r="N285" s="14"/>
       <c r="O285" s="1"/>
       <c r="P285" s="6"/>
       <c r="Q285" s="1"/>
@@ -6830,28 +6526,2638 @@
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
     </row>
-    <row r="287" spans="1:18" ht="409.6" customHeight="1">
+    <row r="287" spans="1:18" ht="1.05" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
-      <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
-      <c r="F287" s="1"/>
-      <c r="G287" s="1"/>
-      <c r="H287" s="1"/>
-      <c r="I287" s="1"/>
-      <c r="J287" s="1"/>
-      <c r="K287" s="1"/>
-      <c r="L287" s="1"/>
-      <c r="M287" s="1"/>
-      <c r="N287" s="1"/>
-      <c r="O287" s="1"/>
-      <c r="P287" s="1"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="12"/>
+      <c r="F287" s="12"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5"/>
+      <c r="K287" s="13"/>
+      <c r="L287" s="13"/>
+      <c r="M287" s="5"/>
+      <c r="N287" s="5"/>
+      <c r="O287" s="13"/>
+      <c r="P287" s="12"/>
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
     </row>
+    <row r="288" spans="1:18" ht="27" customHeight="1">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="12"/>
+      <c r="F288" s="12"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="14"/>
+      <c r="I288" s="14"/>
+      <c r="J288" s="14"/>
+      <c r="K288" s="13"/>
+      <c r="L288" s="13"/>
+      <c r="M288" s="1"/>
+      <c r="N288" s="14"/>
+      <c r="O288" s="13"/>
+      <c r="P288" s="12"/>
+      <c r="Q288" s="1"/>
+      <c r="R288" s="1"/>
+    </row>
+    <row r="289" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="14"/>
+      <c r="I289" s="14"/>
+      <c r="J289" s="14"/>
+      <c r="K289" s="1"/>
+      <c r="L289" s="1"/>
+      <c r="M289" s="1"/>
+      <c r="N289" s="14"/>
+      <c r="O289" s="1"/>
+      <c r="P289" s="6"/>
+      <c r="Q289" s="1"/>
+      <c r="R289" s="1"/>
+    </row>
+    <row r="290" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="7"/>
+      <c r="D290" s="7"/>
+      <c r="E290" s="7"/>
+      <c r="F290" s="7"/>
+      <c r="G290" s="7"/>
+      <c r="H290" s="7"/>
+      <c r="I290" s="7"/>
+      <c r="J290" s="7"/>
+      <c r="K290" s="7"/>
+      <c r="L290" s="7"/>
+      <c r="M290" s="7"/>
+      <c r="N290" s="7"/>
+      <c r="O290" s="7"/>
+      <c r="P290" s="7"/>
+      <c r="Q290" s="1"/>
+      <c r="R290" s="1"/>
+    </row>
+    <row r="291" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="12"/>
+      <c r="E291" s="12"/>
+      <c r="F291" s="12"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5"/>
+      <c r="K291" s="13"/>
+      <c r="L291" s="13"/>
+      <c r="M291" s="5"/>
+      <c r="N291" s="5"/>
+      <c r="O291" s="13"/>
+      <c r="P291" s="12"/>
+      <c r="Q291" s="1"/>
+      <c r="R291" s="1"/>
+    </row>
+    <row r="292" spans="1:18" ht="27" customHeight="1">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="12"/>
+      <c r="F292" s="12"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="14"/>
+      <c r="I292" s="14"/>
+      <c r="J292" s="14"/>
+      <c r="K292" s="13"/>
+      <c r="L292" s="13"/>
+      <c r="M292" s="1"/>
+      <c r="N292" s="14"/>
+      <c r="O292" s="13"/>
+      <c r="P292" s="12"/>
+      <c r="Q292" s="1"/>
+      <c r="R292" s="1"/>
+    </row>
+    <row r="293" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="14"/>
+      <c r="I293" s="14"/>
+      <c r="J293" s="14"/>
+      <c r="K293" s="1"/>
+      <c r="L293" s="1"/>
+      <c r="M293" s="1"/>
+      <c r="N293" s="14"/>
+      <c r="O293" s="1"/>
+      <c r="P293" s="6"/>
+      <c r="Q293" s="1"/>
+      <c r="R293" s="1"/>
+    </row>
+    <row r="294" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="7"/>
+      <c r="D294" s="7"/>
+      <c r="E294" s="7"/>
+      <c r="F294" s="7"/>
+      <c r="G294" s="7"/>
+      <c r="H294" s="7"/>
+      <c r="I294" s="7"/>
+      <c r="J294" s="7"/>
+      <c r="K294" s="7"/>
+      <c r="L294" s="7"/>
+      <c r="M294" s="7"/>
+      <c r="N294" s="7"/>
+      <c r="O294" s="7"/>
+      <c r="P294" s="7"/>
+      <c r="Q294" s="1"/>
+      <c r="R294" s="1"/>
+    </row>
+    <row r="295" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="12"/>
+      <c r="F295" s="12"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
+      <c r="I295" s="5"/>
+      <c r="J295" s="5"/>
+      <c r="K295" s="12"/>
+      <c r="L295" s="12"/>
+      <c r="M295" s="5"/>
+      <c r="N295" s="5"/>
+      <c r="O295" s="12"/>
+      <c r="P295" s="12"/>
+      <c r="Q295" s="1"/>
+      <c r="R295" s="1"/>
+    </row>
+    <row r="296" spans="1:18" ht="27" customHeight="1">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="12"/>
+      <c r="F296" s="12"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="14"/>
+      <c r="I296" s="14"/>
+      <c r="J296" s="14"/>
+      <c r="K296" s="12"/>
+      <c r="L296" s="12"/>
+      <c r="M296" s="1"/>
+      <c r="N296" s="14"/>
+      <c r="O296" s="12"/>
+      <c r="P296" s="12"/>
+      <c r="Q296" s="1"/>
+      <c r="R296" s="1"/>
+    </row>
+    <row r="297" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="6"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="14"/>
+      <c r="I297" s="14"/>
+      <c r="J297" s="14"/>
+      <c r="K297" s="1"/>
+      <c r="L297" s="1"/>
+      <c r="M297" s="1"/>
+      <c r="N297" s="14"/>
+      <c r="O297" s="1"/>
+      <c r="P297" s="6"/>
+      <c r="Q297" s="1"/>
+      <c r="R297" s="1"/>
+    </row>
+    <row r="298" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="7"/>
+      <c r="D298" s="7"/>
+      <c r="E298" s="7"/>
+      <c r="F298" s="7"/>
+      <c r="G298" s="7"/>
+      <c r="H298" s="7"/>
+      <c r="I298" s="7"/>
+      <c r="J298" s="7"/>
+      <c r="K298" s="7"/>
+      <c r="L298" s="7"/>
+      <c r="M298" s="7"/>
+      <c r="N298" s="7"/>
+      <c r="O298" s="7"/>
+      <c r="P298" s="7"/>
+      <c r="Q298" s="1"/>
+      <c r="R298" s="1"/>
+    </row>
+    <row r="299" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="12"/>
+      <c r="E299" s="12"/>
+      <c r="F299" s="12"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
+      <c r="I299" s="5"/>
+      <c r="J299" s="5"/>
+      <c r="K299" s="13"/>
+      <c r="L299" s="13"/>
+      <c r="M299" s="5"/>
+      <c r="N299" s="5"/>
+      <c r="O299" s="13"/>
+      <c r="P299" s="12"/>
+      <c r="Q299" s="1"/>
+      <c r="R299" s="1"/>
+    </row>
+    <row r="300" spans="1:18" ht="27" customHeight="1">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="12"/>
+      <c r="E300" s="12"/>
+      <c r="F300" s="12"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="14"/>
+      <c r="I300" s="14"/>
+      <c r="J300" s="14"/>
+      <c r="K300" s="13"/>
+      <c r="L300" s="13"/>
+      <c r="M300" s="1"/>
+      <c r="N300" s="14"/>
+      <c r="O300" s="13"/>
+      <c r="P300" s="12"/>
+      <c r="Q300" s="1"/>
+      <c r="R300" s="1"/>
+    </row>
+    <row r="301" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="14"/>
+      <c r="I301" s="14"/>
+      <c r="J301" s="14"/>
+      <c r="K301" s="1"/>
+      <c r="L301" s="1"/>
+      <c r="M301" s="1"/>
+      <c r="N301" s="14"/>
+      <c r="O301" s="1"/>
+      <c r="P301" s="6"/>
+      <c r="Q301" s="1"/>
+      <c r="R301" s="1"/>
+    </row>
+    <row r="302" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="7"/>
+      <c r="D302" s="7"/>
+      <c r="E302" s="7"/>
+      <c r="F302" s="7"/>
+      <c r="G302" s="7"/>
+      <c r="H302" s="7"/>
+      <c r="I302" s="7"/>
+      <c r="J302" s="7"/>
+      <c r="K302" s="7"/>
+      <c r="L302" s="7"/>
+      <c r="M302" s="7"/>
+      <c r="N302" s="7"/>
+      <c r="O302" s="7"/>
+      <c r="P302" s="7"/>
+      <c r="Q302" s="1"/>
+      <c r="R302" s="1"/>
+    </row>
+    <row r="303" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="12"/>
+      <c r="E303" s="12"/>
+      <c r="F303" s="12"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="5"/>
+      <c r="I303" s="5"/>
+      <c r="J303" s="5"/>
+      <c r="K303" s="13"/>
+      <c r="L303" s="13"/>
+      <c r="M303" s="5"/>
+      <c r="N303" s="5"/>
+      <c r="O303" s="13"/>
+      <c r="P303" s="12"/>
+      <c r="Q303" s="1"/>
+      <c r="R303" s="1"/>
+    </row>
+    <row r="304" spans="1:18" ht="27" customHeight="1">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="12"/>
+      <c r="E304" s="12"/>
+      <c r="F304" s="12"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="14"/>
+      <c r="I304" s="14"/>
+      <c r="J304" s="14"/>
+      <c r="K304" s="13"/>
+      <c r="L304" s="13"/>
+      <c r="M304" s="1"/>
+      <c r="N304" s="14"/>
+      <c r="O304" s="13"/>
+      <c r="P304" s="12"/>
+      <c r="Q304" s="1"/>
+      <c r="R304" s="1"/>
+    </row>
+    <row r="305" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="6"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="14"/>
+      <c r="I305" s="14"/>
+      <c r="J305" s="14"/>
+      <c r="K305" s="1"/>
+      <c r="L305" s="1"/>
+      <c r="M305" s="1"/>
+      <c r="N305" s="14"/>
+      <c r="O305" s="1"/>
+      <c r="P305" s="6"/>
+      <c r="Q305" s="1"/>
+      <c r="R305" s="1"/>
+    </row>
+    <row r="306" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="7"/>
+      <c r="D306" s="7"/>
+      <c r="E306" s="7"/>
+      <c r="F306" s="7"/>
+      <c r="G306" s="7"/>
+      <c r="H306" s="7"/>
+      <c r="I306" s="7"/>
+      <c r="J306" s="7"/>
+      <c r="K306" s="7"/>
+      <c r="L306" s="7"/>
+      <c r="M306" s="7"/>
+      <c r="N306" s="7"/>
+      <c r="O306" s="7"/>
+      <c r="P306" s="7"/>
+      <c r="Q306" s="1"/>
+      <c r="R306" s="1"/>
+    </row>
+    <row r="307" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="12"/>
+      <c r="E307" s="12"/>
+      <c r="F307" s="12"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5"/>
+      <c r="K307" s="13"/>
+      <c r="L307" s="13"/>
+      <c r="M307" s="5"/>
+      <c r="N307" s="5"/>
+      <c r="O307" s="13"/>
+      <c r="P307" s="12"/>
+      <c r="Q307" s="1"/>
+      <c r="R307" s="1"/>
+    </row>
+    <row r="308" spans="1:18" ht="27" customHeight="1">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="6"/>
+      <c r="D308" s="12"/>
+      <c r="E308" s="12"/>
+      <c r="F308" s="12"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="14"/>
+      <c r="I308" s="14"/>
+      <c r="J308" s="14"/>
+      <c r="K308" s="13"/>
+      <c r="L308" s="13"/>
+      <c r="M308" s="1"/>
+      <c r="N308" s="14"/>
+      <c r="O308" s="13"/>
+      <c r="P308" s="12"/>
+      <c r="Q308" s="1"/>
+      <c r="R308" s="1"/>
+    </row>
+    <row r="309" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="6"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="14"/>
+      <c r="I309" s="14"/>
+      <c r="J309" s="14"/>
+      <c r="K309" s="1"/>
+      <c r="L309" s="1"/>
+      <c r="M309" s="1"/>
+      <c r="N309" s="14"/>
+      <c r="O309" s="1"/>
+      <c r="P309" s="6"/>
+      <c r="Q309" s="1"/>
+      <c r="R309" s="1"/>
+    </row>
+    <row r="310" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="7"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" s="7"/>
+      <c r="H310" s="7"/>
+      <c r="I310" s="7"/>
+      <c r="J310" s="7"/>
+      <c r="K310" s="7"/>
+      <c r="L310" s="7"/>
+      <c r="M310" s="7"/>
+      <c r="N310" s="7"/>
+      <c r="O310" s="7"/>
+      <c r="P310" s="7"/>
+      <c r="Q310" s="1"/>
+      <c r="R310" s="1"/>
+    </row>
+    <row r="311" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="12"/>
+      <c r="E311" s="12"/>
+      <c r="F311" s="12"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
+      <c r="I311" s="5"/>
+      <c r="J311" s="5"/>
+      <c r="K311" s="13"/>
+      <c r="L311" s="13"/>
+      <c r="M311" s="5"/>
+      <c r="N311" s="5"/>
+      <c r="O311" s="13"/>
+      <c r="P311" s="12"/>
+      <c r="Q311" s="1"/>
+      <c r="R311" s="1"/>
+    </row>
+    <row r="312" spans="1:18" ht="27" customHeight="1">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="6"/>
+      <c r="D312" s="12"/>
+      <c r="E312" s="12"/>
+      <c r="F312" s="12"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="14"/>
+      <c r="I312" s="14"/>
+      <c r="J312" s="14"/>
+      <c r="K312" s="13"/>
+      <c r="L312" s="13"/>
+      <c r="M312" s="1"/>
+      <c r="N312" s="14"/>
+      <c r="O312" s="13"/>
+      <c r="P312" s="12"/>
+      <c r="Q312" s="1"/>
+      <c r="R312" s="1"/>
+    </row>
+    <row r="313" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="6"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+      <c r="H313" s="14"/>
+      <c r="I313" s="14"/>
+      <c r="J313" s="14"/>
+      <c r="K313" s="1"/>
+      <c r="L313" s="1"/>
+      <c r="M313" s="1"/>
+      <c r="N313" s="14"/>
+      <c r="O313" s="1"/>
+      <c r="P313" s="6"/>
+      <c r="Q313" s="1"/>
+      <c r="R313" s="1"/>
+    </row>
+    <row r="314" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="7"/>
+      <c r="D314" s="7"/>
+      <c r="E314" s="7"/>
+      <c r="F314" s="7"/>
+      <c r="G314" s="7"/>
+      <c r="H314" s="7"/>
+      <c r="I314" s="7"/>
+      <c r="J314" s="7"/>
+      <c r="K314" s="7"/>
+      <c r="L314" s="7"/>
+      <c r="M314" s="7"/>
+      <c r="N314" s="7"/>
+      <c r="O314" s="7"/>
+      <c r="P314" s="7"/>
+      <c r="Q314" s="1"/>
+      <c r="R314" s="1"/>
+    </row>
+    <row r="315" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="12"/>
+      <c r="E315" s="12"/>
+      <c r="F315" s="12"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="5"/>
+      <c r="I315" s="5"/>
+      <c r="J315" s="5"/>
+      <c r="K315" s="13"/>
+      <c r="L315" s="13"/>
+      <c r="M315" s="5"/>
+      <c r="N315" s="5"/>
+      <c r="O315" s="13"/>
+      <c r="P315" s="12"/>
+      <c r="Q315" s="1"/>
+      <c r="R315" s="1"/>
+    </row>
+    <row r="316" spans="1:18" ht="27" customHeight="1">
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
+      <c r="C316" s="6"/>
+      <c r="D316" s="12"/>
+      <c r="E316" s="12"/>
+      <c r="F316" s="12"/>
+      <c r="G316" s="1"/>
+      <c r="H316" s="14"/>
+      <c r="I316" s="14"/>
+      <c r="J316" s="14"/>
+      <c r="K316" s="13"/>
+      <c r="L316" s="13"/>
+      <c r="M316" s="1"/>
+      <c r="N316" s="14"/>
+      <c r="O316" s="13"/>
+      <c r="P316" s="12"/>
+      <c r="Q316" s="1"/>
+      <c r="R316" s="1"/>
+    </row>
+    <row r="317" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="6"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
+      <c r="H317" s="14"/>
+      <c r="I317" s="14"/>
+      <c r="J317" s="14"/>
+      <c r="K317" s="1"/>
+      <c r="L317" s="1"/>
+      <c r="M317" s="1"/>
+      <c r="N317" s="14"/>
+      <c r="O317" s="1"/>
+      <c r="P317" s="6"/>
+      <c r="Q317" s="1"/>
+      <c r="R317" s="1"/>
+    </row>
+    <row r="318" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="7"/>
+      <c r="D318" s="7"/>
+      <c r="E318" s="7"/>
+      <c r="F318" s="7"/>
+      <c r="G318" s="7"/>
+      <c r="H318" s="7"/>
+      <c r="I318" s="7"/>
+      <c r="J318" s="7"/>
+      <c r="K318" s="7"/>
+      <c r="L318" s="7"/>
+      <c r="M318" s="7"/>
+      <c r="N318" s="7"/>
+      <c r="O318" s="7"/>
+      <c r="P318" s="7"/>
+      <c r="Q318" s="1"/>
+      <c r="R318" s="1"/>
+    </row>
+    <row r="319" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="12"/>
+      <c r="E319" s="12"/>
+      <c r="F319" s="12"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="5"/>
+      <c r="I319" s="5"/>
+      <c r="J319" s="5"/>
+      <c r="K319" s="12"/>
+      <c r="L319" s="12"/>
+      <c r="M319" s="5"/>
+      <c r="N319" s="5"/>
+      <c r="O319" s="12"/>
+      <c r="P319" s="12"/>
+      <c r="Q319" s="1"/>
+      <c r="R319" s="1"/>
+    </row>
+    <row r="320" spans="1:18" ht="27" customHeight="1">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="6"/>
+      <c r="D320" s="12"/>
+      <c r="E320" s="12"/>
+      <c r="F320" s="12"/>
+      <c r="G320" s="1"/>
+      <c r="H320" s="14"/>
+      <c r="I320" s="14"/>
+      <c r="J320" s="14"/>
+      <c r="K320" s="12"/>
+      <c r="L320" s="12"/>
+      <c r="M320" s="1"/>
+      <c r="N320" s="14"/>
+      <c r="O320" s="12"/>
+      <c r="P320" s="12"/>
+      <c r="Q320" s="1"/>
+      <c r="R320" s="1"/>
+    </row>
+    <row r="321" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="6"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+      <c r="H321" s="14"/>
+      <c r="I321" s="14"/>
+      <c r="J321" s="14"/>
+      <c r="K321" s="1"/>
+      <c r="L321" s="1"/>
+      <c r="M321" s="1"/>
+      <c r="N321" s="14"/>
+      <c r="O321" s="1"/>
+      <c r="P321" s="6"/>
+      <c r="Q321" s="1"/>
+      <c r="R321" s="1"/>
+    </row>
+    <row r="322" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="7"/>
+      <c r="D322" s="7"/>
+      <c r="E322" s="7"/>
+      <c r="F322" s="7"/>
+      <c r="G322" s="7"/>
+      <c r="H322" s="7"/>
+      <c r="I322" s="7"/>
+      <c r="J322" s="7"/>
+      <c r="K322" s="7"/>
+      <c r="L322" s="7"/>
+      <c r="M322" s="7"/>
+      <c r="N322" s="7"/>
+      <c r="O322" s="7"/>
+      <c r="P322" s="7"/>
+      <c r="Q322" s="1"/>
+      <c r="R322" s="1"/>
+    </row>
+    <row r="323" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="12"/>
+      <c r="E323" s="12"/>
+      <c r="F323" s="12"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5"/>
+      <c r="I323" s="5"/>
+      <c r="J323" s="5"/>
+      <c r="K323" s="12"/>
+      <c r="L323" s="12"/>
+      <c r="M323" s="5"/>
+      <c r="N323" s="5"/>
+      <c r="O323" s="12"/>
+      <c r="P323" s="12"/>
+      <c r="Q323" s="1"/>
+      <c r="R323" s="1"/>
+    </row>
+    <row r="324" spans="1:18" ht="27" customHeight="1">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="6"/>
+      <c r="D324" s="12"/>
+      <c r="E324" s="12"/>
+      <c r="F324" s="12"/>
+      <c r="G324" s="1"/>
+      <c r="H324" s="14"/>
+      <c r="I324" s="14"/>
+      <c r="J324" s="14"/>
+      <c r="K324" s="12"/>
+      <c r="L324" s="12"/>
+      <c r="M324" s="1"/>
+      <c r="N324" s="14"/>
+      <c r="O324" s="12"/>
+      <c r="P324" s="12"/>
+      <c r="Q324" s="1"/>
+      <c r="R324" s="1"/>
+    </row>
+    <row r="325" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="14"/>
+      <c r="I325" s="14"/>
+      <c r="J325" s="14"/>
+      <c r="K325" s="1"/>
+      <c r="L325" s="1"/>
+      <c r="M325" s="1"/>
+      <c r="N325" s="14"/>
+      <c r="O325" s="1"/>
+      <c r="P325" s="6"/>
+      <c r="Q325" s="1"/>
+      <c r="R325" s="1"/>
+    </row>
+    <row r="326" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="7"/>
+      <c r="D326" s="7"/>
+      <c r="E326" s="7"/>
+      <c r="F326" s="7"/>
+      <c r="G326" s="7"/>
+      <c r="H326" s="7"/>
+      <c r="I326" s="7"/>
+      <c r="J326" s="7"/>
+      <c r="K326" s="7"/>
+      <c r="L326" s="7"/>
+      <c r="M326" s="7"/>
+      <c r="N326" s="7"/>
+      <c r="O326" s="7"/>
+      <c r="P326" s="7"/>
+      <c r="Q326" s="1"/>
+      <c r="R326" s="1"/>
+    </row>
+    <row r="327" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="12"/>
+      <c r="E327" s="12"/>
+      <c r="F327" s="12"/>
+      <c r="G327" s="5"/>
+      <c r="H327" s="5"/>
+      <c r="I327" s="5"/>
+      <c r="J327" s="5"/>
+      <c r="K327" s="13"/>
+      <c r="L327" s="13"/>
+      <c r="M327" s="5"/>
+      <c r="N327" s="5"/>
+      <c r="O327" s="13"/>
+      <c r="P327" s="12"/>
+      <c r="Q327" s="1"/>
+      <c r="R327" s="1"/>
+    </row>
+    <row r="328" spans="1:18" ht="27" customHeight="1">
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="6"/>
+      <c r="D328" s="12"/>
+      <c r="E328" s="12"/>
+      <c r="F328" s="12"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="14"/>
+      <c r="I328" s="14"/>
+      <c r="J328" s="14"/>
+      <c r="K328" s="13"/>
+      <c r="L328" s="13"/>
+      <c r="M328" s="1"/>
+      <c r="N328" s="14"/>
+      <c r="O328" s="13"/>
+      <c r="P328" s="12"/>
+      <c r="Q328" s="1"/>
+      <c r="R328" s="1"/>
+    </row>
+    <row r="329" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="6"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+      <c r="H329" s="14"/>
+      <c r="I329" s="14"/>
+      <c r="J329" s="14"/>
+      <c r="K329" s="1"/>
+      <c r="L329" s="1"/>
+      <c r="M329" s="1"/>
+      <c r="N329" s="14"/>
+      <c r="O329" s="1"/>
+      <c r="P329" s="6"/>
+      <c r="Q329" s="1"/>
+      <c r="R329" s="1"/>
+    </row>
+    <row r="330" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="7"/>
+      <c r="D330" s="7"/>
+      <c r="E330" s="7"/>
+      <c r="F330" s="7"/>
+      <c r="G330" s="7"/>
+      <c r="H330" s="7"/>
+      <c r="I330" s="7"/>
+      <c r="J330" s="7"/>
+      <c r="K330" s="7"/>
+      <c r="L330" s="7"/>
+      <c r="M330" s="7"/>
+      <c r="N330" s="7"/>
+      <c r="O330" s="7"/>
+      <c r="P330" s="7"/>
+      <c r="Q330" s="1"/>
+      <c r="R330" s="1"/>
+    </row>
+    <row r="331" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="12"/>
+      <c r="E331" s="12"/>
+      <c r="F331" s="12"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
+      <c r="I331" s="5"/>
+      <c r="J331" s="5"/>
+      <c r="K331" s="13"/>
+      <c r="L331" s="13"/>
+      <c r="M331" s="5"/>
+      <c r="N331" s="5"/>
+      <c r="O331" s="13"/>
+      <c r="P331" s="12"/>
+      <c r="Q331" s="1"/>
+      <c r="R331" s="1"/>
+    </row>
+    <row r="332" spans="1:18" ht="27" customHeight="1">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="6"/>
+      <c r="D332" s="12"/>
+      <c r="E332" s="12"/>
+      <c r="F332" s="12"/>
+      <c r="G332" s="1"/>
+      <c r="H332" s="14"/>
+      <c r="I332" s="14"/>
+      <c r="J332" s="14"/>
+      <c r="K332" s="13"/>
+      <c r="L332" s="13"/>
+      <c r="M332" s="1"/>
+      <c r="N332" s="14"/>
+      <c r="O332" s="13"/>
+      <c r="P332" s="12"/>
+      <c r="Q332" s="1"/>
+      <c r="R332" s="1"/>
+    </row>
+    <row r="333" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="6"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+      <c r="H333" s="14"/>
+      <c r="I333" s="14"/>
+      <c r="J333" s="14"/>
+      <c r="K333" s="1"/>
+      <c r="L333" s="1"/>
+      <c r="M333" s="1"/>
+      <c r="N333" s="14"/>
+      <c r="O333" s="1"/>
+      <c r="P333" s="6"/>
+      <c r="Q333" s="1"/>
+      <c r="R333" s="1"/>
+    </row>
+    <row r="334" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="7"/>
+      <c r="D334" s="7"/>
+      <c r="E334" s="7"/>
+      <c r="F334" s="7"/>
+      <c r="G334" s="7"/>
+      <c r="H334" s="7"/>
+      <c r="I334" s="7"/>
+      <c r="J334" s="7"/>
+      <c r="K334" s="7"/>
+      <c r="L334" s="7"/>
+      <c r="M334" s="7"/>
+      <c r="N334" s="7"/>
+      <c r="O334" s="7"/>
+      <c r="P334" s="7"/>
+      <c r="Q334" s="1"/>
+      <c r="R334" s="1"/>
+    </row>
+    <row r="335" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="12"/>
+      <c r="E335" s="12"/>
+      <c r="F335" s="12"/>
+      <c r="G335" s="5"/>
+      <c r="H335" s="5"/>
+      <c r="I335" s="5"/>
+      <c r="J335" s="5"/>
+      <c r="K335" s="13"/>
+      <c r="L335" s="13"/>
+      <c r="M335" s="5"/>
+      <c r="N335" s="5"/>
+      <c r="O335" s="13"/>
+      <c r="P335" s="12"/>
+      <c r="Q335" s="1"/>
+      <c r="R335" s="1"/>
+    </row>
+    <row r="336" spans="1:18" ht="27" customHeight="1">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="6"/>
+      <c r="D336" s="12"/>
+      <c r="E336" s="12"/>
+      <c r="F336" s="12"/>
+      <c r="G336" s="1"/>
+      <c r="H336" s="14"/>
+      <c r="I336" s="14"/>
+      <c r="J336" s="14"/>
+      <c r="K336" s="13"/>
+      <c r="L336" s="13"/>
+      <c r="M336" s="1"/>
+      <c r="N336" s="14"/>
+      <c r="O336" s="13"/>
+      <c r="P336" s="12"/>
+      <c r="Q336" s="1"/>
+      <c r="R336" s="1"/>
+    </row>
+    <row r="337" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="6"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+      <c r="H337" s="14"/>
+      <c r="I337" s="14"/>
+      <c r="J337" s="14"/>
+      <c r="K337" s="1"/>
+      <c r="L337" s="1"/>
+      <c r="M337" s="1"/>
+      <c r="N337" s="14"/>
+      <c r="O337" s="1"/>
+      <c r="P337" s="6"/>
+      <c r="Q337" s="1"/>
+      <c r="R337" s="1"/>
+    </row>
+    <row r="338" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="7"/>
+      <c r="D338" s="7"/>
+      <c r="E338" s="7"/>
+      <c r="F338" s="7"/>
+      <c r="G338" s="7"/>
+      <c r="H338" s="7"/>
+      <c r="I338" s="7"/>
+      <c r="J338" s="7"/>
+      <c r="K338" s="7"/>
+      <c r="L338" s="7"/>
+      <c r="M338" s="7"/>
+      <c r="N338" s="7"/>
+      <c r="O338" s="7"/>
+      <c r="P338" s="7"/>
+      <c r="Q338" s="1"/>
+      <c r="R338" s="1"/>
+    </row>
+    <row r="339" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="12"/>
+      <c r="E339" s="12"/>
+      <c r="F339" s="12"/>
+      <c r="G339" s="5"/>
+      <c r="H339" s="5"/>
+      <c r="I339" s="5"/>
+      <c r="J339" s="5"/>
+      <c r="K339" s="13"/>
+      <c r="L339" s="13"/>
+      <c r="M339" s="5"/>
+      <c r="N339" s="5"/>
+      <c r="O339" s="13"/>
+      <c r="P339" s="12"/>
+      <c r="Q339" s="1"/>
+      <c r="R339" s="1"/>
+    </row>
+    <row r="340" spans="1:18" ht="27" customHeight="1">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="6"/>
+      <c r="D340" s="12"/>
+      <c r="E340" s="12"/>
+      <c r="F340" s="12"/>
+      <c r="G340" s="1"/>
+      <c r="H340" s="14"/>
+      <c r="I340" s="14"/>
+      <c r="J340" s="14"/>
+      <c r="K340" s="13"/>
+      <c r="L340" s="13"/>
+      <c r="M340" s="1"/>
+      <c r="N340" s="14"/>
+      <c r="O340" s="13"/>
+      <c r="P340" s="12"/>
+      <c r="Q340" s="1"/>
+      <c r="R340" s="1"/>
+    </row>
+    <row r="341" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="6"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+      <c r="H341" s="14"/>
+      <c r="I341" s="14"/>
+      <c r="J341" s="14"/>
+      <c r="K341" s="1"/>
+      <c r="L341" s="1"/>
+      <c r="M341" s="1"/>
+      <c r="N341" s="14"/>
+      <c r="O341" s="1"/>
+      <c r="P341" s="6"/>
+      <c r="Q341" s="1"/>
+      <c r="R341" s="1"/>
+    </row>
+    <row r="342" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="7"/>
+      <c r="D342" s="7"/>
+      <c r="E342" s="7"/>
+      <c r="F342" s="7"/>
+      <c r="G342" s="7"/>
+      <c r="H342" s="7"/>
+      <c r="I342" s="7"/>
+      <c r="J342" s="7"/>
+      <c r="K342" s="7"/>
+      <c r="L342" s="7"/>
+      <c r="M342" s="7"/>
+      <c r="N342" s="7"/>
+      <c r="O342" s="7"/>
+      <c r="P342" s="7"/>
+      <c r="Q342" s="1"/>
+      <c r="R342" s="1"/>
+    </row>
+    <row r="343" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="12"/>
+      <c r="E343" s="12"/>
+      <c r="F343" s="12"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
+      <c r="I343" s="5"/>
+      <c r="J343" s="5"/>
+      <c r="K343" s="13"/>
+      <c r="L343" s="13"/>
+      <c r="M343" s="5"/>
+      <c r="N343" s="5"/>
+      <c r="O343" s="13"/>
+      <c r="P343" s="12"/>
+      <c r="Q343" s="1"/>
+      <c r="R343" s="1"/>
+    </row>
+    <row r="344" spans="1:18" ht="27" customHeight="1">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="6"/>
+      <c r="D344" s="12"/>
+      <c r="E344" s="12"/>
+      <c r="F344" s="12"/>
+      <c r="G344" s="1"/>
+      <c r="H344" s="14"/>
+      <c r="I344" s="14"/>
+      <c r="J344" s="14"/>
+      <c r="K344" s="13"/>
+      <c r="L344" s="13"/>
+      <c r="M344" s="1"/>
+      <c r="N344" s="14"/>
+      <c r="O344" s="13"/>
+      <c r="P344" s="12"/>
+      <c r="Q344" s="1"/>
+      <c r="R344" s="1"/>
+    </row>
+    <row r="345" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="6"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+      <c r="H345" s="14"/>
+      <c r="I345" s="14"/>
+      <c r="J345" s="14"/>
+      <c r="K345" s="1"/>
+      <c r="L345" s="1"/>
+      <c r="M345" s="1"/>
+      <c r="N345" s="14"/>
+      <c r="O345" s="1"/>
+      <c r="P345" s="6"/>
+      <c r="Q345" s="1"/>
+      <c r="R345" s="1"/>
+    </row>
+    <row r="346" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="7"/>
+      <c r="D346" s="7"/>
+      <c r="E346" s="7"/>
+      <c r="F346" s="7"/>
+      <c r="G346" s="7"/>
+      <c r="H346" s="7"/>
+      <c r="I346" s="7"/>
+      <c r="J346" s="7"/>
+      <c r="K346" s="7"/>
+      <c r="L346" s="7"/>
+      <c r="M346" s="7"/>
+      <c r="N346" s="7"/>
+      <c r="O346" s="7"/>
+      <c r="P346" s="7"/>
+      <c r="Q346" s="1"/>
+      <c r="R346" s="1"/>
+    </row>
+    <row r="347" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="12"/>
+      <c r="E347" s="12"/>
+      <c r="F347" s="12"/>
+      <c r="G347" s="5"/>
+      <c r="H347" s="5"/>
+      <c r="I347" s="5"/>
+      <c r="J347" s="5"/>
+      <c r="K347" s="13"/>
+      <c r="L347" s="13"/>
+      <c r="M347" s="5"/>
+      <c r="N347" s="5"/>
+      <c r="O347" s="13"/>
+      <c r="P347" s="12"/>
+      <c r="Q347" s="1"/>
+      <c r="R347" s="1"/>
+    </row>
+    <row r="348" spans="1:18" ht="27" customHeight="1">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="6"/>
+      <c r="D348" s="12"/>
+      <c r="E348" s="12"/>
+      <c r="F348" s="12"/>
+      <c r="G348" s="1"/>
+      <c r="H348" s="14"/>
+      <c r="I348" s="14"/>
+      <c r="J348" s="14"/>
+      <c r="K348" s="13"/>
+      <c r="L348" s="13"/>
+      <c r="M348" s="1"/>
+      <c r="N348" s="14"/>
+      <c r="O348" s="13"/>
+      <c r="P348" s="12"/>
+      <c r="Q348" s="1"/>
+      <c r="R348" s="1"/>
+    </row>
+    <row r="349" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="6"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+      <c r="H349" s="14"/>
+      <c r="I349" s="14"/>
+      <c r="J349" s="14"/>
+      <c r="K349" s="1"/>
+      <c r="L349" s="1"/>
+      <c r="M349" s="1"/>
+      <c r="N349" s="14"/>
+      <c r="O349" s="1"/>
+      <c r="P349" s="6"/>
+      <c r="Q349" s="1"/>
+      <c r="R349" s="1"/>
+    </row>
+    <row r="350" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="7"/>
+      <c r="D350" s="7"/>
+      <c r="E350" s="7"/>
+      <c r="F350" s="7"/>
+      <c r="G350" s="7"/>
+      <c r="H350" s="7"/>
+      <c r="I350" s="7"/>
+      <c r="J350" s="7"/>
+      <c r="K350" s="7"/>
+      <c r="L350" s="7"/>
+      <c r="M350" s="7"/>
+      <c r="N350" s="7"/>
+      <c r="O350" s="7"/>
+      <c r="P350" s="7"/>
+      <c r="Q350" s="1"/>
+      <c r="R350" s="1"/>
+    </row>
+    <row r="351" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="12"/>
+      <c r="E351" s="12"/>
+      <c r="F351" s="12"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="5"/>
+      <c r="I351" s="5"/>
+      <c r="J351" s="5"/>
+      <c r="K351" s="13"/>
+      <c r="L351" s="13"/>
+      <c r="M351" s="5"/>
+      <c r="N351" s="5"/>
+      <c r="O351" s="13"/>
+      <c r="P351" s="12"/>
+      <c r="Q351" s="1"/>
+      <c r="R351" s="1"/>
+    </row>
+    <row r="352" spans="1:18" ht="27" customHeight="1">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="6"/>
+      <c r="D352" s="12"/>
+      <c r="E352" s="12"/>
+      <c r="F352" s="12"/>
+      <c r="G352" s="1"/>
+      <c r="H352" s="14"/>
+      <c r="I352" s="14"/>
+      <c r="J352" s="14"/>
+      <c r="K352" s="13"/>
+      <c r="L352" s="13"/>
+      <c r="M352" s="1"/>
+      <c r="N352" s="14"/>
+      <c r="O352" s="13"/>
+      <c r="P352" s="12"/>
+      <c r="Q352" s="1"/>
+      <c r="R352" s="1"/>
+    </row>
+    <row r="353" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="6"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+      <c r="H353" s="14"/>
+      <c r="I353" s="14"/>
+      <c r="J353" s="14"/>
+      <c r="K353" s="1"/>
+      <c r="L353" s="1"/>
+      <c r="M353" s="1"/>
+      <c r="N353" s="14"/>
+      <c r="O353" s="1"/>
+      <c r="P353" s="6"/>
+      <c r="Q353" s="1"/>
+      <c r="R353" s="1"/>
+    </row>
+    <row r="354" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="7"/>
+      <c r="D354" s="7"/>
+      <c r="E354" s="7"/>
+      <c r="F354" s="7"/>
+      <c r="G354" s="7"/>
+      <c r="H354" s="7"/>
+      <c r="I354" s="7"/>
+      <c r="J354" s="7"/>
+      <c r="K354" s="7"/>
+      <c r="L354" s="7"/>
+      <c r="M354" s="7"/>
+      <c r="N354" s="7"/>
+      <c r="O354" s="7"/>
+      <c r="P354" s="7"/>
+      <c r="Q354" s="1"/>
+      <c r="R354" s="1"/>
+    </row>
+    <row r="355" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="12"/>
+      <c r="E355" s="12"/>
+      <c r="F355" s="12"/>
+      <c r="G355" s="5"/>
+      <c r="H355" s="5"/>
+      <c r="I355" s="5"/>
+      <c r="J355" s="5"/>
+      <c r="K355" s="12"/>
+      <c r="L355" s="12"/>
+      <c r="M355" s="5"/>
+      <c r="N355" s="5"/>
+      <c r="O355" s="12"/>
+      <c r="P355" s="12"/>
+      <c r="Q355" s="1"/>
+      <c r="R355" s="1"/>
+    </row>
+    <row r="356" spans="1:18" ht="27" customHeight="1">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="6"/>
+      <c r="D356" s="12"/>
+      <c r="E356" s="12"/>
+      <c r="F356" s="12"/>
+      <c r="G356" s="1"/>
+      <c r="H356" s="14"/>
+      <c r="I356" s="14"/>
+      <c r="J356" s="14"/>
+      <c r="K356" s="12"/>
+      <c r="L356" s="12"/>
+      <c r="M356" s="1"/>
+      <c r="N356" s="14"/>
+      <c r="O356" s="12"/>
+      <c r="P356" s="12"/>
+      <c r="Q356" s="1"/>
+      <c r="R356" s="1"/>
+    </row>
+    <row r="357" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="6"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
+      <c r="G357" s="1"/>
+      <c r="H357" s="14"/>
+      <c r="I357" s="14"/>
+      <c r="J357" s="14"/>
+      <c r="K357" s="1"/>
+      <c r="L357" s="1"/>
+      <c r="M357" s="1"/>
+      <c r="N357" s="14"/>
+      <c r="O357" s="1"/>
+      <c r="P357" s="6"/>
+      <c r="Q357" s="1"/>
+      <c r="R357" s="1"/>
+    </row>
+    <row r="358" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="7"/>
+      <c r="D358" s="7"/>
+      <c r="E358" s="7"/>
+      <c r="F358" s="7"/>
+      <c r="G358" s="7"/>
+      <c r="H358" s="7"/>
+      <c r="I358" s="7"/>
+      <c r="J358" s="7"/>
+      <c r="K358" s="7"/>
+      <c r="L358" s="7"/>
+      <c r="M358" s="7"/>
+      <c r="N358" s="7"/>
+      <c r="O358" s="7"/>
+      <c r="P358" s="7"/>
+      <c r="Q358" s="1"/>
+      <c r="R358" s="1"/>
+    </row>
+    <row r="359" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="12"/>
+      <c r="E359" s="12"/>
+      <c r="F359" s="12"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="5"/>
+      <c r="J359" s="5"/>
+      <c r="K359" s="13"/>
+      <c r="L359" s="13"/>
+      <c r="M359" s="5"/>
+      <c r="N359" s="5"/>
+      <c r="O359" s="13"/>
+      <c r="P359" s="12"/>
+      <c r="Q359" s="1"/>
+      <c r="R359" s="1"/>
+    </row>
+    <row r="360" spans="1:18" ht="27" customHeight="1">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+      <c r="C360" s="6"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="12"/>
+      <c r="F360" s="12"/>
+      <c r="G360" s="1"/>
+      <c r="H360" s="14"/>
+      <c r="I360" s="14"/>
+      <c r="J360" s="14"/>
+      <c r="K360" s="13"/>
+      <c r="L360" s="13"/>
+      <c r="M360" s="1"/>
+      <c r="N360" s="14"/>
+      <c r="O360" s="13"/>
+      <c r="P360" s="12"/>
+      <c r="Q360" s="1"/>
+      <c r="R360" s="1"/>
+    </row>
+    <row r="361" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="6"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+      <c r="F361" s="1"/>
+      <c r="G361" s="1"/>
+      <c r="H361" s="14"/>
+      <c r="I361" s="14"/>
+      <c r="J361" s="14"/>
+      <c r="K361" s="1"/>
+      <c r="L361" s="1"/>
+      <c r="M361" s="1"/>
+      <c r="N361" s="14"/>
+      <c r="O361" s="1"/>
+      <c r="P361" s="6"/>
+      <c r="Q361" s="1"/>
+      <c r="R361" s="1"/>
+    </row>
+    <row r="362" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="7"/>
+      <c r="D362" s="7"/>
+      <c r="E362" s="7"/>
+      <c r="F362" s="7"/>
+      <c r="G362" s="7"/>
+      <c r="H362" s="7"/>
+      <c r="I362" s="7"/>
+      <c r="J362" s="7"/>
+      <c r="K362" s="7"/>
+      <c r="L362" s="7"/>
+      <c r="M362" s="7"/>
+      <c r="N362" s="7"/>
+      <c r="O362" s="7"/>
+      <c r="P362" s="7"/>
+      <c r="Q362" s="1"/>
+      <c r="R362" s="1"/>
+    </row>
+    <row r="363" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="12"/>
+      <c r="F363" s="12"/>
+      <c r="G363" s="5"/>
+      <c r="H363" s="5"/>
+      <c r="I363" s="5"/>
+      <c r="J363" s="5"/>
+      <c r="K363" s="13"/>
+      <c r="L363" s="13"/>
+      <c r="M363" s="5"/>
+      <c r="N363" s="5"/>
+      <c r="O363" s="13"/>
+      <c r="P363" s="12"/>
+      <c r="Q363" s="1"/>
+      <c r="R363" s="1"/>
+    </row>
+    <row r="364" spans="1:18" ht="27" customHeight="1">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="6"/>
+      <c r="D364" s="12"/>
+      <c r="E364" s="12"/>
+      <c r="F364" s="12"/>
+      <c r="G364" s="1"/>
+      <c r="H364" s="14"/>
+      <c r="I364" s="14"/>
+      <c r="J364" s="14"/>
+      <c r="K364" s="13"/>
+      <c r="L364" s="13"/>
+      <c r="M364" s="1"/>
+      <c r="N364" s="14"/>
+      <c r="O364" s="13"/>
+      <c r="P364" s="12"/>
+      <c r="Q364" s="1"/>
+      <c r="R364" s="1"/>
+    </row>
+    <row r="365" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="6"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1"/>
+      <c r="F365" s="1"/>
+      <c r="G365" s="1"/>
+      <c r="H365" s="14"/>
+      <c r="I365" s="14"/>
+      <c r="J365" s="14"/>
+      <c r="K365" s="1"/>
+      <c r="L365" s="1"/>
+      <c r="M365" s="1"/>
+      <c r="N365" s="14"/>
+      <c r="O365" s="1"/>
+      <c r="P365" s="6"/>
+      <c r="Q365" s="1"/>
+      <c r="R365" s="1"/>
+    </row>
+    <row r="366" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="7"/>
+      <c r="D366" s="7"/>
+      <c r="E366" s="7"/>
+      <c r="F366" s="7"/>
+      <c r="G366" s="7"/>
+      <c r="H366" s="7"/>
+      <c r="I366" s="7"/>
+      <c r="J366" s="7"/>
+      <c r="K366" s="7"/>
+      <c r="L366" s="7"/>
+      <c r="M366" s="7"/>
+      <c r="N366" s="7"/>
+      <c r="O366" s="7"/>
+      <c r="P366" s="7"/>
+      <c r="Q366" s="1"/>
+      <c r="R366" s="1"/>
+    </row>
+    <row r="367" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="12"/>
+      <c r="F367" s="12"/>
+      <c r="G367" s="5"/>
+      <c r="H367" s="5"/>
+      <c r="I367" s="5"/>
+      <c r="J367" s="5"/>
+      <c r="K367" s="13"/>
+      <c r="L367" s="13"/>
+      <c r="M367" s="5"/>
+      <c r="N367" s="5"/>
+      <c r="O367" s="13"/>
+      <c r="P367" s="12"/>
+      <c r="Q367" s="1"/>
+      <c r="R367" s="1"/>
+    </row>
+    <row r="368" spans="1:18" ht="27" customHeight="1">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="6"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="12"/>
+      <c r="F368" s="12"/>
+      <c r="G368" s="1"/>
+      <c r="H368" s="14"/>
+      <c r="I368" s="14"/>
+      <c r="J368" s="14"/>
+      <c r="K368" s="13"/>
+      <c r="L368" s="13"/>
+      <c r="M368" s="1"/>
+      <c r="N368" s="14"/>
+      <c r="O368" s="13"/>
+      <c r="P368" s="12"/>
+      <c r="Q368" s="1"/>
+      <c r="R368" s="1"/>
+    </row>
+    <row r="369" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="6"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="1"/>
+      <c r="F369" s="1"/>
+      <c r="G369" s="1"/>
+      <c r="H369" s="14"/>
+      <c r="I369" s="14"/>
+      <c r="J369" s="14"/>
+      <c r="K369" s="1"/>
+      <c r="L369" s="1"/>
+      <c r="M369" s="1"/>
+      <c r="N369" s="14"/>
+      <c r="O369" s="1"/>
+      <c r="P369" s="6"/>
+      <c r="Q369" s="1"/>
+      <c r="R369" s="1"/>
+    </row>
+    <row r="370" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="7"/>
+      <c r="D370" s="7"/>
+      <c r="E370" s="7"/>
+      <c r="F370" s="7"/>
+      <c r="G370" s="7"/>
+      <c r="H370" s="7"/>
+      <c r="I370" s="7"/>
+      <c r="J370" s="7"/>
+      <c r="K370" s="7"/>
+      <c r="L370" s="7"/>
+      <c r="M370" s="7"/>
+      <c r="N370" s="7"/>
+      <c r="O370" s="7"/>
+      <c r="P370" s="7"/>
+      <c r="Q370" s="1"/>
+      <c r="R370" s="1"/>
+    </row>
+    <row r="371" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="12"/>
+      <c r="E371" s="12"/>
+      <c r="F371" s="12"/>
+      <c r="G371" s="5"/>
+      <c r="H371" s="5"/>
+      <c r="I371" s="5"/>
+      <c r="J371" s="5"/>
+      <c r="K371" s="13"/>
+      <c r="L371" s="13"/>
+      <c r="M371" s="5"/>
+      <c r="N371" s="5"/>
+      <c r="O371" s="13"/>
+      <c r="P371" s="12"/>
+      <c r="Q371" s="1"/>
+      <c r="R371" s="1"/>
+    </row>
+    <row r="372" spans="1:18" ht="27" customHeight="1">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="6"/>
+      <c r="D372" s="12"/>
+      <c r="E372" s="12"/>
+      <c r="F372" s="12"/>
+      <c r="G372" s="1"/>
+      <c r="H372" s="14"/>
+      <c r="I372" s="14"/>
+      <c r="J372" s="14"/>
+      <c r="K372" s="13"/>
+      <c r="L372" s="13"/>
+      <c r="M372" s="1"/>
+      <c r="N372" s="14"/>
+      <c r="O372" s="13"/>
+      <c r="P372" s="12"/>
+      <c r="Q372" s="1"/>
+      <c r="R372" s="1"/>
+    </row>
+    <row r="373" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="6"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="1"/>
+      <c r="F373" s="1"/>
+      <c r="G373" s="1"/>
+      <c r="H373" s="14"/>
+      <c r="I373" s="14"/>
+      <c r="J373" s="14"/>
+      <c r="K373" s="1"/>
+      <c r="L373" s="1"/>
+      <c r="M373" s="1"/>
+      <c r="N373" s="14"/>
+      <c r="O373" s="1"/>
+      <c r="P373" s="6"/>
+      <c r="Q373" s="1"/>
+      <c r="R373" s="1"/>
+    </row>
+    <row r="374" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="7"/>
+      <c r="D374" s="7"/>
+      <c r="E374" s="7"/>
+      <c r="F374" s="7"/>
+      <c r="G374" s="7"/>
+      <c r="H374" s="7"/>
+      <c r="I374" s="7"/>
+      <c r="J374" s="7"/>
+      <c r="K374" s="7"/>
+      <c r="L374" s="7"/>
+      <c r="M374" s="7"/>
+      <c r="N374" s="7"/>
+      <c r="O374" s="7"/>
+      <c r="P374" s="7"/>
+      <c r="Q374" s="1"/>
+      <c r="R374" s="1"/>
+    </row>
+    <row r="375" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="5"/>
+      <c r="D375" s="12"/>
+      <c r="E375" s="12"/>
+      <c r="F375" s="12"/>
+      <c r="G375" s="5"/>
+      <c r="H375" s="5"/>
+      <c r="I375" s="5"/>
+      <c r="J375" s="5"/>
+      <c r="K375" s="13"/>
+      <c r="L375" s="13"/>
+      <c r="M375" s="5"/>
+      <c r="N375" s="5"/>
+      <c r="O375" s="13"/>
+      <c r="P375" s="12"/>
+      <c r="Q375" s="1"/>
+      <c r="R375" s="1"/>
+    </row>
+    <row r="376" spans="1:18" ht="27" customHeight="1">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="6"/>
+      <c r="D376" s="12"/>
+      <c r="E376" s="12"/>
+      <c r="F376" s="12"/>
+      <c r="G376" s="1"/>
+      <c r="H376" s="14"/>
+      <c r="I376" s="14"/>
+      <c r="J376" s="14"/>
+      <c r="K376" s="13"/>
+      <c r="L376" s="13"/>
+      <c r="M376" s="1"/>
+      <c r="N376" s="14"/>
+      <c r="O376" s="13"/>
+      <c r="P376" s="12"/>
+      <c r="Q376" s="1"/>
+      <c r="R376" s="1"/>
+    </row>
+    <row r="377" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="6"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+      <c r="F377" s="1"/>
+      <c r="G377" s="1"/>
+      <c r="H377" s="14"/>
+      <c r="I377" s="14"/>
+      <c r="J377" s="14"/>
+      <c r="K377" s="1"/>
+      <c r="L377" s="1"/>
+      <c r="M377" s="1"/>
+      <c r="N377" s="14"/>
+      <c r="O377" s="1"/>
+      <c r="P377" s="6"/>
+      <c r="Q377" s="1"/>
+      <c r="R377" s="1"/>
+    </row>
+    <row r="378" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="7"/>
+      <c r="D378" s="7"/>
+      <c r="E378" s="7"/>
+      <c r="F378" s="7"/>
+      <c r="G378" s="7"/>
+      <c r="H378" s="7"/>
+      <c r="I378" s="7"/>
+      <c r="J378" s="7"/>
+      <c r="K378" s="7"/>
+      <c r="L378" s="7"/>
+      <c r="M378" s="7"/>
+      <c r="N378" s="7"/>
+      <c r="O378" s="7"/>
+      <c r="P378" s="7"/>
+      <c r="Q378" s="1"/>
+      <c r="R378" s="1"/>
+    </row>
+    <row r="379" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="12"/>
+      <c r="E379" s="12"/>
+      <c r="F379" s="12"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="5"/>
+      <c r="J379" s="5"/>
+      <c r="K379" s="13"/>
+      <c r="L379" s="13"/>
+      <c r="M379" s="5"/>
+      <c r="N379" s="5"/>
+      <c r="O379" s="13"/>
+      <c r="P379" s="12"/>
+      <c r="Q379" s="1"/>
+      <c r="R379" s="1"/>
+    </row>
+    <row r="380" spans="1:18" ht="27" customHeight="1">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="6"/>
+      <c r="D380" s="12"/>
+      <c r="E380" s="12"/>
+      <c r="F380" s="12"/>
+      <c r="G380" s="1"/>
+      <c r="H380" s="14"/>
+      <c r="I380" s="14"/>
+      <c r="J380" s="14"/>
+      <c r="K380" s="13"/>
+      <c r="L380" s="13"/>
+      <c r="M380" s="1"/>
+      <c r="N380" s="14"/>
+      <c r="O380" s="13"/>
+      <c r="P380" s="12"/>
+      <c r="Q380" s="1"/>
+      <c r="R380" s="1"/>
+    </row>
+    <row r="381" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="6"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="1"/>
+      <c r="F381" s="1"/>
+      <c r="G381" s="1"/>
+      <c r="H381" s="14"/>
+      <c r="I381" s="14"/>
+      <c r="J381" s="14"/>
+      <c r="K381" s="1"/>
+      <c r="L381" s="1"/>
+      <c r="M381" s="1"/>
+      <c r="N381" s="14"/>
+      <c r="O381" s="1"/>
+      <c r="P381" s="6"/>
+      <c r="Q381" s="1"/>
+      <c r="R381" s="1"/>
+    </row>
+    <row r="382" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="7"/>
+      <c r="D382" s="7"/>
+      <c r="E382" s="7"/>
+      <c r="F382" s="7"/>
+      <c r="G382" s="7"/>
+      <c r="H382" s="7"/>
+      <c r="I382" s="7"/>
+      <c r="J382" s="7"/>
+      <c r="K382" s="7"/>
+      <c r="L382" s="7"/>
+      <c r="M382" s="7"/>
+      <c r="N382" s="7"/>
+      <c r="O382" s="7"/>
+      <c r="P382" s="7"/>
+      <c r="Q382" s="1"/>
+      <c r="R382" s="1"/>
+    </row>
+    <row r="383" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="5"/>
+      <c r="D383" s="12"/>
+      <c r="E383" s="12"/>
+      <c r="F383" s="12"/>
+      <c r="G383" s="5"/>
+      <c r="H383" s="5"/>
+      <c r="I383" s="5"/>
+      <c r="J383" s="5"/>
+      <c r="K383" s="13"/>
+      <c r="L383" s="13"/>
+      <c r="M383" s="5"/>
+      <c r="N383" s="5"/>
+      <c r="O383" s="13"/>
+      <c r="P383" s="12"/>
+      <c r="Q383" s="1"/>
+      <c r="R383" s="1"/>
+    </row>
+    <row r="384" spans="1:18" ht="27" customHeight="1">
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
+      <c r="C384" s="6"/>
+      <c r="D384" s="12"/>
+      <c r="E384" s="12"/>
+      <c r="F384" s="12"/>
+      <c r="G384" s="1"/>
+      <c r="H384" s="14"/>
+      <c r="I384" s="14"/>
+      <c r="J384" s="14"/>
+      <c r="K384" s="13"/>
+      <c r="L384" s="13"/>
+      <c r="M384" s="1"/>
+      <c r="N384" s="14"/>
+      <c r="O384" s="13"/>
+      <c r="P384" s="12"/>
+      <c r="Q384" s="1"/>
+      <c r="R384" s="1"/>
+    </row>
+    <row r="385" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="6"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1"/>
+      <c r="F385" s="1"/>
+      <c r="G385" s="1"/>
+      <c r="H385" s="14"/>
+      <c r="I385" s="14"/>
+      <c r="J385" s="14"/>
+      <c r="K385" s="1"/>
+      <c r="L385" s="1"/>
+      <c r="M385" s="1"/>
+      <c r="N385" s="14"/>
+      <c r="O385" s="1"/>
+      <c r="P385" s="6"/>
+      <c r="Q385" s="1"/>
+      <c r="R385" s="1"/>
+    </row>
+    <row r="386" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="7"/>
+      <c r="D386" s="7"/>
+      <c r="E386" s="7"/>
+      <c r="F386" s="7"/>
+      <c r="G386" s="7"/>
+      <c r="H386" s="7"/>
+      <c r="I386" s="7"/>
+      <c r="J386" s="7"/>
+      <c r="K386" s="7"/>
+      <c r="L386" s="7"/>
+      <c r="M386" s="7"/>
+      <c r="N386" s="7"/>
+      <c r="O386" s="7"/>
+      <c r="P386" s="7"/>
+      <c r="Q386" s="1"/>
+      <c r="R386" s="1"/>
+    </row>
+    <row r="387" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+      <c r="C387" s="5"/>
+      <c r="D387" s="12"/>
+      <c r="E387" s="12"/>
+      <c r="F387" s="12"/>
+      <c r="G387" s="5"/>
+      <c r="H387" s="5"/>
+      <c r="I387" s="5"/>
+      <c r="J387" s="5"/>
+      <c r="K387" s="13"/>
+      <c r="L387" s="13"/>
+      <c r="M387" s="5"/>
+      <c r="N387" s="5"/>
+      <c r="O387" s="13"/>
+      <c r="P387" s="12"/>
+      <c r="Q387" s="1"/>
+      <c r="R387" s="1"/>
+    </row>
+    <row r="388" spans="1:18" ht="27" customHeight="1">
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="6"/>
+      <c r="D388" s="12"/>
+      <c r="E388" s="12"/>
+      <c r="F388" s="12"/>
+      <c r="G388" s="1"/>
+      <c r="H388" s="14"/>
+      <c r="I388" s="14"/>
+      <c r="J388" s="14"/>
+      <c r="K388" s="13"/>
+      <c r="L388" s="13"/>
+      <c r="M388" s="1"/>
+      <c r="N388" s="14"/>
+      <c r="O388" s="13"/>
+      <c r="P388" s="12"/>
+      <c r="Q388" s="1"/>
+      <c r="R388" s="1"/>
+    </row>
+    <row r="389" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="6"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="1"/>
+      <c r="F389" s="1"/>
+      <c r="G389" s="1"/>
+      <c r="H389" s="14"/>
+      <c r="I389" s="14"/>
+      <c r="J389" s="14"/>
+      <c r="K389" s="1"/>
+      <c r="L389" s="1"/>
+      <c r="M389" s="1"/>
+      <c r="N389" s="14"/>
+      <c r="O389" s="1"/>
+      <c r="P389" s="6"/>
+      <c r="Q389" s="1"/>
+      <c r="R389" s="1"/>
+    </row>
+    <row r="390" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="7"/>
+      <c r="D390" s="7"/>
+      <c r="E390" s="7"/>
+      <c r="F390" s="7"/>
+      <c r="G390" s="7"/>
+      <c r="H390" s="7"/>
+      <c r="I390" s="7"/>
+      <c r="J390" s="7"/>
+      <c r="K390" s="7"/>
+      <c r="L390" s="7"/>
+      <c r="M390" s="7"/>
+      <c r="N390" s="7"/>
+      <c r="O390" s="7"/>
+      <c r="P390" s="7"/>
+      <c r="Q390" s="1"/>
+      <c r="R390" s="1"/>
+    </row>
+    <row r="391" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
+      <c r="C391" s="5"/>
+      <c r="D391" s="12"/>
+      <c r="E391" s="12"/>
+      <c r="F391" s="12"/>
+      <c r="G391" s="5"/>
+      <c r="H391" s="5"/>
+      <c r="I391" s="5"/>
+      <c r="J391" s="5"/>
+      <c r="K391" s="13"/>
+      <c r="L391" s="13"/>
+      <c r="M391" s="5"/>
+      <c r="N391" s="5"/>
+      <c r="O391" s="13"/>
+      <c r="P391" s="12"/>
+      <c r="Q391" s="1"/>
+      <c r="R391" s="1"/>
+    </row>
+    <row r="392" spans="1:18" ht="27" customHeight="1">
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
+      <c r="C392" s="6"/>
+      <c r="D392" s="12"/>
+      <c r="E392" s="12"/>
+      <c r="F392" s="12"/>
+      <c r="G392" s="1"/>
+      <c r="H392" s="14"/>
+      <c r="I392" s="14"/>
+      <c r="J392" s="14"/>
+      <c r="K392" s="13"/>
+      <c r="L392" s="13"/>
+      <c r="M392" s="1"/>
+      <c r="N392" s="14"/>
+      <c r="O392" s="13"/>
+      <c r="P392" s="12"/>
+      <c r="Q392" s="1"/>
+      <c r="R392" s="1"/>
+    </row>
+    <row r="393" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="6"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="1"/>
+      <c r="F393" s="1"/>
+      <c r="G393" s="1"/>
+      <c r="H393" s="14"/>
+      <c r="I393" s="14"/>
+      <c r="J393" s="14"/>
+      <c r="K393" s="1"/>
+      <c r="L393" s="1"/>
+      <c r="M393" s="1"/>
+      <c r="N393" s="14"/>
+      <c r="O393" s="1"/>
+      <c r="P393" s="6"/>
+      <c r="Q393" s="1"/>
+      <c r="R393" s="1"/>
+    </row>
+    <row r="394" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="7"/>
+      <c r="D394" s="7"/>
+      <c r="E394" s="7"/>
+      <c r="F394" s="7"/>
+      <c r="G394" s="7"/>
+      <c r="H394" s="7"/>
+      <c r="I394" s="7"/>
+      <c r="J394" s="7"/>
+      <c r="K394" s="7"/>
+      <c r="L394" s="7"/>
+      <c r="M394" s="7"/>
+      <c r="N394" s="7"/>
+      <c r="O394" s="7"/>
+      <c r="P394" s="7"/>
+      <c r="Q394" s="1"/>
+      <c r="R394" s="1"/>
+    </row>
+    <row r="395" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="5"/>
+      <c r="D395" s="12"/>
+      <c r="E395" s="12"/>
+      <c r="F395" s="12"/>
+      <c r="G395" s="5"/>
+      <c r="H395" s="5"/>
+      <c r="I395" s="5"/>
+      <c r="J395" s="5"/>
+      <c r="K395" s="13"/>
+      <c r="L395" s="13"/>
+      <c r="M395" s="5"/>
+      <c r="N395" s="5"/>
+      <c r="O395" s="13"/>
+      <c r="P395" s="12"/>
+      <c r="Q395" s="1"/>
+      <c r="R395" s="1"/>
+    </row>
+    <row r="396" spans="1:18" ht="27" customHeight="1">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
+      <c r="C396" s="6"/>
+      <c r="D396" s="12"/>
+      <c r="E396" s="12"/>
+      <c r="F396" s="12"/>
+      <c r="G396" s="1"/>
+      <c r="H396" s="14"/>
+      <c r="I396" s="14"/>
+      <c r="J396" s="14"/>
+      <c r="K396" s="13"/>
+      <c r="L396" s="13"/>
+      <c r="M396" s="1"/>
+      <c r="N396" s="14"/>
+      <c r="O396" s="13"/>
+      <c r="P396" s="12"/>
+      <c r="Q396" s="1"/>
+      <c r="R396" s="1"/>
+    </row>
+    <row r="397" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="6"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="1"/>
+      <c r="F397" s="1"/>
+      <c r="G397" s="1"/>
+      <c r="H397" s="14"/>
+      <c r="I397" s="14"/>
+      <c r="J397" s="14"/>
+      <c r="K397" s="1"/>
+      <c r="L397" s="1"/>
+      <c r="M397" s="1"/>
+      <c r="N397" s="14"/>
+      <c r="O397" s="1"/>
+      <c r="P397" s="6"/>
+      <c r="Q397" s="1"/>
+      <c r="R397" s="1"/>
+    </row>
+    <row r="398" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="7"/>
+      <c r="D398" s="7"/>
+      <c r="E398" s="7"/>
+      <c r="F398" s="7"/>
+      <c r="G398" s="7"/>
+      <c r="H398" s="7"/>
+      <c r="I398" s="7"/>
+      <c r="J398" s="7"/>
+      <c r="K398" s="7"/>
+      <c r="L398" s="7"/>
+      <c r="M398" s="7"/>
+      <c r="N398" s="7"/>
+      <c r="O398" s="7"/>
+      <c r="P398" s="7"/>
+      <c r="Q398" s="1"/>
+      <c r="R398" s="1"/>
+    </row>
+    <row r="399" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="5"/>
+      <c r="D399" s="12"/>
+      <c r="E399" s="12"/>
+      <c r="F399" s="12"/>
+      <c r="G399" s="5"/>
+      <c r="H399" s="5"/>
+      <c r="I399" s="5"/>
+      <c r="J399" s="5"/>
+      <c r="K399" s="13"/>
+      <c r="L399" s="13"/>
+      <c r="M399" s="5"/>
+      <c r="N399" s="5"/>
+      <c r="O399" s="13"/>
+      <c r="P399" s="12"/>
+      <c r="Q399" s="1"/>
+      <c r="R399" s="1"/>
+    </row>
+    <row r="400" spans="1:18" ht="27" customHeight="1">
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
+      <c r="C400" s="6"/>
+      <c r="D400" s="12"/>
+      <c r="E400" s="12"/>
+      <c r="F400" s="12"/>
+      <c r="G400" s="1"/>
+      <c r="H400" s="14"/>
+      <c r="I400" s="14"/>
+      <c r="J400" s="14"/>
+      <c r="K400" s="13"/>
+      <c r="L400" s="13"/>
+      <c r="M400" s="1"/>
+      <c r="N400" s="14"/>
+      <c r="O400" s="13"/>
+      <c r="P400" s="12"/>
+      <c r="Q400" s="1"/>
+      <c r="R400" s="1"/>
+    </row>
+    <row r="401" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
+      <c r="C401" s="6"/>
+      <c r="D401" s="1"/>
+      <c r="E401" s="1"/>
+      <c r="F401" s="1"/>
+      <c r="G401" s="1"/>
+      <c r="H401" s="14"/>
+      <c r="I401" s="14"/>
+      <c r="J401" s="14"/>
+      <c r="K401" s="1"/>
+      <c r="L401" s="1"/>
+      <c r="M401" s="1"/>
+      <c r="N401" s="14"/>
+      <c r="O401" s="1"/>
+      <c r="P401" s="6"/>
+      <c r="Q401" s="1"/>
+      <c r="R401" s="1"/>
+    </row>
+    <row r="402" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
+      <c r="C402" s="7"/>
+      <c r="D402" s="7"/>
+      <c r="E402" s="7"/>
+      <c r="F402" s="7"/>
+      <c r="G402" s="7"/>
+      <c r="H402" s="7"/>
+      <c r="I402" s="7"/>
+      <c r="J402" s="7"/>
+      <c r="K402" s="7"/>
+      <c r="L402" s="7"/>
+      <c r="M402" s="7"/>
+      <c r="N402" s="7"/>
+      <c r="O402" s="7"/>
+      <c r="P402" s="7"/>
+      <c r="Q402" s="1"/>
+      <c r="R402" s="1"/>
+    </row>
+    <row r="403" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="5"/>
+      <c r="D403" s="12"/>
+      <c r="E403" s="12"/>
+      <c r="F403" s="12"/>
+      <c r="G403" s="5"/>
+      <c r="H403" s="5"/>
+      <c r="I403" s="5"/>
+      <c r="J403" s="5"/>
+      <c r="K403" s="13"/>
+      <c r="L403" s="13"/>
+      <c r="M403" s="5"/>
+      <c r="N403" s="5"/>
+      <c r="O403" s="13"/>
+      <c r="P403" s="12"/>
+      <c r="Q403" s="1"/>
+      <c r="R403" s="1"/>
+    </row>
+    <row r="404" spans="1:18" ht="27" customHeight="1">
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
+      <c r="C404" s="6"/>
+      <c r="D404" s="12"/>
+      <c r="E404" s="12"/>
+      <c r="F404" s="12"/>
+      <c r="G404" s="1"/>
+      <c r="H404" s="14"/>
+      <c r="I404" s="14"/>
+      <c r="J404" s="14"/>
+      <c r="K404" s="13"/>
+      <c r="L404" s="13"/>
+      <c r="M404" s="1"/>
+      <c r="N404" s="14"/>
+      <c r="O404" s="13"/>
+      <c r="P404" s="12"/>
+      <c r="Q404" s="1"/>
+      <c r="R404" s="1"/>
+    </row>
+    <row r="405" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
+      <c r="C405" s="6"/>
+      <c r="D405" s="1"/>
+      <c r="E405" s="1"/>
+      <c r="F405" s="1"/>
+      <c r="G405" s="1"/>
+      <c r="H405" s="14"/>
+      <c r="I405" s="14"/>
+      <c r="J405" s="14"/>
+      <c r="K405" s="1"/>
+      <c r="L405" s="1"/>
+      <c r="M405" s="1"/>
+      <c r="N405" s="14"/>
+      <c r="O405" s="1"/>
+      <c r="P405" s="6"/>
+      <c r="Q405" s="1"/>
+      <c r="R405" s="1"/>
+    </row>
+    <row r="406" spans="1:18" ht="1.05" customHeight="1">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
+      <c r="C406" s="7"/>
+      <c r="D406" s="7"/>
+      <c r="E406" s="7"/>
+      <c r="F406" s="7"/>
+      <c r="G406" s="7"/>
+      <c r="H406" s="7"/>
+      <c r="I406" s="7"/>
+      <c r="J406" s="7"/>
+      <c r="K406" s="7"/>
+      <c r="L406" s="7"/>
+      <c r="M406" s="7"/>
+      <c r="N406" s="7"/>
+      <c r="O406" s="7"/>
+      <c r="P406" s="7"/>
+      <c r="Q406" s="1"/>
+      <c r="R406" s="1"/>
+    </row>
+    <row r="407" spans="1:18" ht="409.6" customHeight="1">
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
+      <c r="E407" s="1"/>
+      <c r="F407" s="1"/>
+      <c r="G407" s="1"/>
+      <c r="H407" s="1"/>
+      <c r="I407" s="1"/>
+      <c r="J407" s="1"/>
+      <c r="K407" s="1"/>
+      <c r="L407" s="1"/>
+      <c r="M407" s="1"/>
+      <c r="N407" s="1"/>
+      <c r="O407" s="1"/>
+      <c r="P407" s="1"/>
+      <c r="Q407" s="1"/>
+      <c r="R407" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="494">
+  <mergeCells count="704">
+    <mergeCell ref="D403:D404"/>
+    <mergeCell ref="E403:F404"/>
+    <mergeCell ref="K403:L404"/>
+    <mergeCell ref="O403:O404"/>
+    <mergeCell ref="P403:P404"/>
+    <mergeCell ref="H404:J405"/>
+    <mergeCell ref="N404:N405"/>
+    <mergeCell ref="D399:D400"/>
+    <mergeCell ref="E399:F400"/>
+    <mergeCell ref="K399:L400"/>
+    <mergeCell ref="O399:O400"/>
+    <mergeCell ref="P399:P400"/>
+    <mergeCell ref="H400:J401"/>
+    <mergeCell ref="N400:N401"/>
+    <mergeCell ref="D395:D396"/>
+    <mergeCell ref="E395:F396"/>
+    <mergeCell ref="K395:L396"/>
+    <mergeCell ref="O395:O396"/>
+    <mergeCell ref="P395:P396"/>
+    <mergeCell ref="H396:J397"/>
+    <mergeCell ref="N396:N397"/>
+    <mergeCell ref="D391:D392"/>
+    <mergeCell ref="E391:F392"/>
+    <mergeCell ref="K391:L392"/>
+    <mergeCell ref="O391:O392"/>
+    <mergeCell ref="P391:P392"/>
+    <mergeCell ref="H392:J393"/>
+    <mergeCell ref="N392:N393"/>
+    <mergeCell ref="D387:D388"/>
+    <mergeCell ref="E387:F388"/>
+    <mergeCell ref="K387:L388"/>
+    <mergeCell ref="O387:O388"/>
+    <mergeCell ref="P387:P388"/>
+    <mergeCell ref="H388:J389"/>
+    <mergeCell ref="N388:N389"/>
+    <mergeCell ref="D383:D384"/>
+    <mergeCell ref="E383:F384"/>
+    <mergeCell ref="K383:L384"/>
+    <mergeCell ref="O383:O384"/>
+    <mergeCell ref="P383:P384"/>
+    <mergeCell ref="H384:J385"/>
+    <mergeCell ref="N384:N385"/>
+    <mergeCell ref="D379:D380"/>
+    <mergeCell ref="E379:F380"/>
+    <mergeCell ref="K379:L380"/>
+    <mergeCell ref="O379:O380"/>
+    <mergeCell ref="P379:P380"/>
+    <mergeCell ref="H380:J381"/>
+    <mergeCell ref="N380:N381"/>
+    <mergeCell ref="D375:D376"/>
+    <mergeCell ref="E375:F376"/>
+    <mergeCell ref="K375:L376"/>
+    <mergeCell ref="O375:O376"/>
+    <mergeCell ref="P375:P376"/>
+    <mergeCell ref="H376:J377"/>
+    <mergeCell ref="N376:N377"/>
+    <mergeCell ref="D371:D372"/>
+    <mergeCell ref="E371:F372"/>
+    <mergeCell ref="K371:L372"/>
+    <mergeCell ref="O371:O372"/>
+    <mergeCell ref="P371:P372"/>
+    <mergeCell ref="H372:J373"/>
+    <mergeCell ref="N372:N373"/>
+    <mergeCell ref="D367:D368"/>
+    <mergeCell ref="E367:F368"/>
+    <mergeCell ref="K367:L368"/>
+    <mergeCell ref="O367:O368"/>
+    <mergeCell ref="P367:P368"/>
+    <mergeCell ref="H368:J369"/>
+    <mergeCell ref="N368:N369"/>
+    <mergeCell ref="D363:D364"/>
+    <mergeCell ref="E363:F364"/>
+    <mergeCell ref="K363:L364"/>
+    <mergeCell ref="O363:O364"/>
+    <mergeCell ref="P363:P364"/>
+    <mergeCell ref="H364:J365"/>
+    <mergeCell ref="N364:N365"/>
+    <mergeCell ref="D359:D360"/>
+    <mergeCell ref="E359:F360"/>
+    <mergeCell ref="K359:L360"/>
+    <mergeCell ref="O359:O360"/>
+    <mergeCell ref="P359:P360"/>
+    <mergeCell ref="H360:J361"/>
+    <mergeCell ref="N360:N361"/>
+    <mergeCell ref="D355:D356"/>
+    <mergeCell ref="E355:F356"/>
+    <mergeCell ref="K355:L356"/>
+    <mergeCell ref="O355:O356"/>
+    <mergeCell ref="P355:P356"/>
+    <mergeCell ref="H356:J357"/>
+    <mergeCell ref="N356:N357"/>
+    <mergeCell ref="D351:D352"/>
+    <mergeCell ref="E351:F352"/>
+    <mergeCell ref="K351:L352"/>
+    <mergeCell ref="O351:O352"/>
+    <mergeCell ref="P351:P352"/>
+    <mergeCell ref="H352:J353"/>
+    <mergeCell ref="N352:N353"/>
+    <mergeCell ref="D347:D348"/>
+    <mergeCell ref="E347:F348"/>
+    <mergeCell ref="K347:L348"/>
+    <mergeCell ref="O347:O348"/>
+    <mergeCell ref="P347:P348"/>
+    <mergeCell ref="H348:J349"/>
+    <mergeCell ref="N348:N349"/>
+    <mergeCell ref="D343:D344"/>
+    <mergeCell ref="E343:F344"/>
+    <mergeCell ref="K343:L344"/>
+    <mergeCell ref="O343:O344"/>
+    <mergeCell ref="P343:P344"/>
+    <mergeCell ref="H344:J345"/>
+    <mergeCell ref="N344:N345"/>
+    <mergeCell ref="D339:D340"/>
+    <mergeCell ref="E339:F340"/>
+    <mergeCell ref="K339:L340"/>
+    <mergeCell ref="O339:O340"/>
+    <mergeCell ref="P339:P340"/>
+    <mergeCell ref="H340:J341"/>
+    <mergeCell ref="N340:N341"/>
+    <mergeCell ref="D335:D336"/>
+    <mergeCell ref="E335:F336"/>
+    <mergeCell ref="K335:L336"/>
+    <mergeCell ref="O335:O336"/>
+    <mergeCell ref="P335:P336"/>
+    <mergeCell ref="H336:J337"/>
+    <mergeCell ref="N336:N337"/>
+    <mergeCell ref="D331:D332"/>
+    <mergeCell ref="E331:F332"/>
+    <mergeCell ref="K331:L332"/>
+    <mergeCell ref="O331:O332"/>
+    <mergeCell ref="P331:P332"/>
+    <mergeCell ref="H332:J333"/>
+    <mergeCell ref="N332:N333"/>
+    <mergeCell ref="D327:D328"/>
+    <mergeCell ref="E327:F328"/>
+    <mergeCell ref="K327:L328"/>
+    <mergeCell ref="O327:O328"/>
+    <mergeCell ref="P327:P328"/>
+    <mergeCell ref="H328:J329"/>
+    <mergeCell ref="N328:N329"/>
+    <mergeCell ref="D323:D324"/>
+    <mergeCell ref="E323:F324"/>
+    <mergeCell ref="K323:L324"/>
+    <mergeCell ref="O323:O324"/>
+    <mergeCell ref="P323:P324"/>
+    <mergeCell ref="H324:J325"/>
+    <mergeCell ref="N324:N325"/>
+    <mergeCell ref="D319:D320"/>
+    <mergeCell ref="E319:F320"/>
+    <mergeCell ref="K319:L320"/>
+    <mergeCell ref="O319:O320"/>
+    <mergeCell ref="P319:P320"/>
+    <mergeCell ref="H320:J321"/>
+    <mergeCell ref="N320:N321"/>
+    <mergeCell ref="D315:D316"/>
+    <mergeCell ref="E315:F316"/>
+    <mergeCell ref="K315:L316"/>
+    <mergeCell ref="O315:O316"/>
+    <mergeCell ref="P315:P316"/>
+    <mergeCell ref="H316:J317"/>
+    <mergeCell ref="N316:N317"/>
+    <mergeCell ref="D311:D312"/>
+    <mergeCell ref="E311:F312"/>
+    <mergeCell ref="K311:L312"/>
+    <mergeCell ref="O311:O312"/>
+    <mergeCell ref="P311:P312"/>
+    <mergeCell ref="H312:J313"/>
+    <mergeCell ref="N312:N313"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="E307:F308"/>
+    <mergeCell ref="K307:L308"/>
+    <mergeCell ref="O307:O308"/>
+    <mergeCell ref="P307:P308"/>
+    <mergeCell ref="H308:J309"/>
+    <mergeCell ref="N308:N309"/>
+    <mergeCell ref="D303:D304"/>
+    <mergeCell ref="E303:F304"/>
+    <mergeCell ref="K303:L304"/>
+    <mergeCell ref="O303:O304"/>
+    <mergeCell ref="P303:P304"/>
+    <mergeCell ref="H304:J305"/>
+    <mergeCell ref="N304:N305"/>
+    <mergeCell ref="D299:D300"/>
+    <mergeCell ref="E299:F300"/>
+    <mergeCell ref="K299:L300"/>
+    <mergeCell ref="O299:O300"/>
+    <mergeCell ref="P299:P300"/>
+    <mergeCell ref="H300:J301"/>
+    <mergeCell ref="N300:N301"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="E295:F296"/>
+    <mergeCell ref="K295:L296"/>
+    <mergeCell ref="O295:O296"/>
+    <mergeCell ref="P295:P296"/>
+    <mergeCell ref="H296:J297"/>
+    <mergeCell ref="N296:N297"/>
+    <mergeCell ref="D291:D292"/>
+    <mergeCell ref="E291:F292"/>
+    <mergeCell ref="K291:L292"/>
+    <mergeCell ref="O291:O292"/>
+    <mergeCell ref="P291:P292"/>
+    <mergeCell ref="H292:J293"/>
+    <mergeCell ref="N292:N293"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="E287:F288"/>
+    <mergeCell ref="K287:L288"/>
+    <mergeCell ref="O287:O288"/>
+    <mergeCell ref="P287:P288"/>
+    <mergeCell ref="H288:J289"/>
+    <mergeCell ref="N288:N289"/>
     <mergeCell ref="D283:D284"/>
     <mergeCell ref="E283:F284"/>
     <mergeCell ref="K283:L284"/>

--- a/uploads/movimientos.xlsx
+++ b/uploads/movimientos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0A37C8-212F-4242-88E1-E612188FEAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D37FFB-0B59-48F4-B5C2-CF0012E44648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Movimientos de Cuenta</t>
   </si>
@@ -75,6 +75,57 @@
   </si>
   <si>
     <t>306949090</t>
+  </si>
+  <si>
+    <t>2025-10-13, 5:44 PM</t>
+  </si>
+  <si>
+    <t>$353,18</t>
+  </si>
+  <si>
+    <t>306866418</t>
+  </si>
+  <si>
+    <t>2025-10-13, 3:30 PM</t>
+  </si>
+  <si>
+    <t>TRANSFERENCIA DIRECTA DE QUEVEDO AIZPRUA ANTHONY FERNANDO</t>
+  </si>
+  <si>
+    <t>$333,18</t>
+  </si>
+  <si>
+    <t>292651038</t>
+  </si>
+  <si>
+    <t>2025-10-13, 1:38 PM</t>
+  </si>
+  <si>
+    <t>TRANSFERENCIA DIRECTA A LARA  MALDONADO LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>Débito</t>
+  </si>
+  <si>
+    <t>-$20,00</t>
+  </si>
+  <si>
+    <t>$313,18</t>
+  </si>
+  <si>
+    <t>279762674</t>
+  </si>
+  <si>
+    <t>2025-10-13, 1:37 PM</t>
+  </si>
+  <si>
+    <t>TRANSFERENCIA DIRECTA A MORA  MARCILLO AMANDO</t>
+  </si>
+  <si>
+    <t>-$30,00</t>
+  </si>
+  <si>
+    <t>279634470</t>
   </si>
 </sst>
 </file>
@@ -372,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -419,6 +470,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,8 +794,8 @@
   </sheetPr>
   <dimension ref="A1:R407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1043,7 +1098,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="13"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="15"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="1.05" customHeight="1">
@@ -1090,19 +1145,29 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="F15" s="12"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="13"/>
+      <c r="K15" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="L15" s="13"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="12"/>
+      <c r="O15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
@@ -1114,7 +1179,9 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="13"/>
@@ -1170,19 +1237,29 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="F19" s="12"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="13"/>
+      <c r="K19" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="L19" s="13"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="12"/>
+      <c r="O19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
@@ -1194,7 +1271,9 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="13"/>
@@ -1250,19 +1329,29 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="F23" s="12"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="12"/>
+      <c r="K23" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="L23" s="12"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
+      <c r="O23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
@@ -1274,7 +1363,9 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="12"/>
@@ -1330,19 +1421,29 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="D27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="F27" s="12"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="12"/>
+      <c r="K27" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="L27" s="12"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
+      <c r="O27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
@@ -1354,7 +1455,9 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="12"/>
